--- a/output/layerSolutions_left.xlsx
+++ b/output/layerSolutions_left.xlsx
@@ -525,10 +525,10 @@
         <v>43000</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -561,10 +561,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -578,10 +578,10 @@
         <v>43025</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -614,10 +614,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>43050</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -684,10 +684,10 @@
         <v>43075</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -720,10 +720,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         <v>43100</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -773,10 +773,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -790,10 +790,10 @@
         <v>43125</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -843,10 +843,10 @@
         <v>43150</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>43175</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -932,10 +932,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>43200</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1002,10 +1002,10 @@
         <v>43225</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1055,10 +1055,10 @@
         <v>43250</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1091,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>43275</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>43300</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1214,10 +1214,10 @@
         <v>43325</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1267,10 +1267,10 @@
         <v>43350</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>43375</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1373,10 +1373,10 @@
         <v>43400</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1409,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>43425</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1462,10 +1462,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>43450</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1515,10 +1515,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>43475</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1568,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>43500</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -1638,10 +1638,10 @@
         <v>43525</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1674,10 +1674,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -1691,10 +1691,10 @@
         <v>43550</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1727,10 +1727,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -1744,10 +1744,10 @@
         <v>43575</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -1797,10 +1797,10 @@
         <v>43600</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1833,10 +1833,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -1850,10 +1850,10 @@
         <v>43625</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1886,10 +1886,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>43650</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1939,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -1956,10 +1956,10 @@
         <v>43675</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1992,10 +1992,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -2009,10 +2009,10 @@
         <v>43700</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2045,10 +2045,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>43725</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -5560,10 +5560,10 @@
         <v>45375</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -5596,10 +5596,10 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O97" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P97" t="n">
         <v>0</v>
@@ -8711,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K156" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L156" t="n">
         <v>0</v>
@@ -8723,10 +8723,10 @@
         <v>0</v>
       </c>
       <c r="N156" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O156" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P156" t="n">
         <v>0</v>
@@ -8740,10 +8740,10 @@
         <v>46875</v>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
@@ -8752,10 +8752,10 @@
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -8764,10 +8764,10 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K157" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L157" t="n">
         <v>0</v>
@@ -8776,10 +8776,10 @@
         <v>0</v>
       </c>
       <c r="N157" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O157" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P157" t="n">
         <v>0</v>
@@ -8817,10 +8817,10 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K158" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L158" t="n">
         <v>0</v>
@@ -8829,10 +8829,10 @@
         <v>0</v>
       </c>
       <c r="N158" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O158" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P158" t="n">
         <v>0</v>
@@ -8870,10 +8870,10 @@
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K159" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L159" t="n">
         <v>0</v>
@@ -8882,10 +8882,10 @@
         <v>0</v>
       </c>
       <c r="N159" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O159" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P159" t="n">
         <v>0</v>
@@ -8899,10 +8899,10 @@
         <v>46950</v>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -8911,10 +8911,10 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -8923,10 +8923,10 @@
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K160" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L160" t="n">
         <v>0</v>
@@ -8935,10 +8935,10 @@
         <v>0</v>
       </c>
       <c r="N160" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O160" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P160" t="n">
         <v>0</v>
@@ -8952,10 +8952,10 @@
         <v>46975</v>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -8964,10 +8964,10 @@
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -8976,10 +8976,10 @@
         <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K161" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L161" t="n">
         <v>0</v>
@@ -8988,10 +8988,10 @@
         <v>0</v>
       </c>
       <c r="N161" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O161" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P161" t="n">
         <v>0</v>
@@ -9058,10 +9058,10 @@
         <v>47025</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -9070,10 +9070,10 @@
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9111,10 +9111,10 @@
         <v>47050</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -9123,10 +9123,10 @@
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -9135,10 +9135,10 @@
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K164" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L164" t="n">
         <v>0</v>
@@ -9147,10 +9147,10 @@
         <v>0</v>
       </c>
       <c r="N164" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O164" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P164" t="n">
         <v>0</v>
@@ -9164,10 +9164,10 @@
         <v>47075</v>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -9176,10 +9176,10 @@
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -9188,10 +9188,10 @@
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K165" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L165" t="n">
         <v>0</v>
@@ -9200,10 +9200,10 @@
         <v>0</v>
       </c>
       <c r="N165" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O165" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P165" t="n">
         <v>0</v>
@@ -9217,10 +9217,10 @@
         <v>47100</v>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -9229,10 +9229,10 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -9241,10 +9241,10 @@
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K166" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L166" t="n">
         <v>0</v>
@@ -9253,10 +9253,10 @@
         <v>0</v>
       </c>
       <c r="N166" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O166" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P166" t="n">
         <v>0</v>
@@ -9270,10 +9270,10 @@
         <v>47125</v>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -9282,10 +9282,10 @@
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -9294,10 +9294,10 @@
         <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L167" t="n">
         <v>0</v>
@@ -9306,10 +9306,10 @@
         <v>0</v>
       </c>
       <c r="N167" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O167" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P167" t="n">
         <v>0</v>
@@ -9323,10 +9323,10 @@
         <v>47150</v>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -9335,10 +9335,10 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -9347,10 +9347,10 @@
         <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K168" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L168" t="n">
         <v>0</v>
@@ -9359,10 +9359,10 @@
         <v>0</v>
       </c>
       <c r="N168" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O168" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P168" t="n">
         <v>0</v>
@@ -9376,10 +9376,10 @@
         <v>47175</v>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -9388,10 +9388,10 @@
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G169" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K169" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L169" t="n">
         <v>0</v>
@@ -9412,10 +9412,10 @@
         <v>0</v>
       </c>
       <c r="N169" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O169" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P169" t="n">
         <v>0</v>
@@ -9429,10 +9429,10 @@
         <v>47200</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
@@ -9441,10 +9441,10 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -9453,10 +9453,10 @@
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K170" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L170" t="n">
         <v>0</v>
@@ -9465,10 +9465,10 @@
         <v>0</v>
       </c>
       <c r="N170" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O170" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P170" t="n">
         <v>0</v>
@@ -9482,10 +9482,10 @@
         <v>47225</v>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -9506,10 +9506,10 @@
         <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K171" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L171" t="n">
         <v>0</v>
@@ -9518,10 +9518,10 @@
         <v>0</v>
       </c>
       <c r="N171" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O171" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P171" t="n">
         <v>0</v>
@@ -9535,10 +9535,10 @@
         <v>47250</v>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
@@ -9547,10 +9547,10 @@
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G172" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -9559,10 +9559,10 @@
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K172" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L172" t="n">
         <v>0</v>
@@ -9571,10 +9571,10 @@
         <v>0</v>
       </c>
       <c r="N172" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O172" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P172" t="n">
         <v>0</v>
@@ -9588,10 +9588,10 @@
         <v>47275</v>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="D173" t="n">
         <v>0</v>
@@ -9600,10 +9600,10 @@
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="G173" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -9612,10 +9612,10 @@
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K173" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L173" t="n">
         <v>0</v>
@@ -9624,10 +9624,10 @@
         <v>0</v>
       </c>
       <c r="N173" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O173" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P173" t="n">
         <v>0</v>
@@ -9641,10 +9641,10 @@
         <v>47300</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
@@ -9653,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -9665,10 +9665,10 @@
         <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K174" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L174" t="n">
         <v>0</v>
@@ -9677,10 +9677,10 @@
         <v>0</v>
       </c>
       <c r="N174" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O174" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P174" t="n">
         <v>0</v>
@@ -9718,10 +9718,10 @@
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K175" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L175" t="n">
         <v>0</v>
@@ -9730,10 +9730,10 @@
         <v>0</v>
       </c>
       <c r="N175" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O175" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P175" t="n">
         <v>0</v>
@@ -9747,10 +9747,10 @@
         <v>47350</v>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D176" t="n">
         <v>0</v>
@@ -9759,10 +9759,10 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -9771,10 +9771,10 @@
         <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K176" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L176" t="n">
         <v>0</v>
@@ -9783,10 +9783,10 @@
         <v>0</v>
       </c>
       <c r="N176" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O176" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P176" t="n">
         <v>0</v>
@@ -9800,10 +9800,10 @@
         <v>47375</v>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
@@ -9812,10 +9812,10 @@
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -9824,10 +9824,10 @@
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K177" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L177" t="n">
         <v>0</v>
@@ -9836,10 +9836,10 @@
         <v>0</v>
       </c>
       <c r="N177" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O177" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P177" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K178" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L178" t="n">
         <v>0</v>
@@ -9889,10 +9889,10 @@
         <v>0</v>
       </c>
       <c r="N178" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O178" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P178" t="n">
         <v>0</v>
@@ -9930,10 +9930,10 @@
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K179" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L179" t="n">
         <v>0</v>
@@ -9942,10 +9942,10 @@
         <v>0</v>
       </c>
       <c r="N179" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O179" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P179" t="n">
         <v>0</v>
@@ -9983,10 +9983,10 @@
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K180" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L180" t="n">
         <v>0</v>
@@ -9995,10 +9995,10 @@
         <v>0</v>
       </c>
       <c r="N180" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O180" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P180" t="n">
         <v>0</v>
@@ -10012,10 +10012,10 @@
         <v>47475</v>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
@@ -10024,10 +10024,10 @@
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="G181" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -10036,10 +10036,10 @@
         <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K181" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L181" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>0</v>
       </c>
       <c r="N181" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O181" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P181" t="n">
         <v>0</v>
@@ -10065,10 +10065,10 @@
         <v>47500</v>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
@@ -10077,10 +10077,10 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -10089,10 +10089,10 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K182" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L182" t="n">
         <v>0</v>
@@ -10101,10 +10101,10 @@
         <v>0</v>
       </c>
       <c r="N182" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O182" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P182" t="n">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>47525</v>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="D183" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -10142,10 +10142,10 @@
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K183" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L183" t="n">
         <v>0</v>
@@ -10154,10 +10154,10 @@
         <v>0</v>
       </c>
       <c r="N183" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O183" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P183" t="n">
         <v>0</v>
@@ -10171,10 +10171,10 @@
         <v>47550</v>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="D184" t="n">
         <v>0</v>
@@ -10207,10 +10207,10 @@
         <v>0</v>
       </c>
       <c r="N184" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O184" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P184" t="n">
         <v>0</v>
@@ -10224,10 +10224,10 @@
         <v>47575</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="D185" t="n">
         <v>0</v>
@@ -10260,10 +10260,10 @@
         <v>0</v>
       </c>
       <c r="N185" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O185" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P185" t="n">
         <v>0</v>
@@ -10277,10 +10277,10 @@
         <v>47600</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="D186" t="n">
         <v>0</v>
@@ -10313,10 +10313,10 @@
         <v>0</v>
       </c>
       <c r="N186" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O186" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P186" t="n">
         <v>0</v>
@@ -10330,10 +10330,10 @@
         <v>47625</v>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="D187" t="n">
         <v>0</v>
@@ -10366,10 +10366,10 @@
         <v>0</v>
       </c>
       <c r="N187" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O187" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P187" t="n">
         <v>0</v>
@@ -10383,10 +10383,10 @@
         <v>47650</v>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="D188" t="n">
         <v>0</v>
@@ -10419,10 +10419,10 @@
         <v>0</v>
       </c>
       <c r="N188" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O188" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P188" t="n">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>47675</v>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
@@ -10472,10 +10472,10 @@
         <v>0</v>
       </c>
       <c r="N189" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O189" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P189" t="n">
         <v>0</v>
@@ -10489,10 +10489,10 @@
         <v>47700</v>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="D190" t="n">
         <v>0</v>
@@ -10525,10 +10525,10 @@
         <v>0</v>
       </c>
       <c r="N190" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O190" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P190" t="n">
         <v>0</v>
@@ -11814,10 +11814,10 @@
         <v>48325</v>
       </c>
       <c r="B215" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="D215" t="n">
         <v>0</v>
@@ -11850,10 +11850,10 @@
         <v>0</v>
       </c>
       <c r="N215" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O215" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="P215" t="n">
         <v>0</v>
@@ -11867,10 +11867,10 @@
         <v>48350</v>
       </c>
       <c r="B216" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D216" t="n">
         <v>0</v>
@@ -11903,10 +11903,10 @@
         <v>0</v>
       </c>
       <c r="N216" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O216" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P216" t="n">
         <v>0</v>
@@ -11920,10 +11920,10 @@
         <v>48375</v>
       </c>
       <c r="B217" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D217" t="n">
         <v>0</v>
@@ -11956,10 +11956,10 @@
         <v>0</v>
       </c>
       <c r="N217" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O217" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P217" t="n">
         <v>0</v>
@@ -11973,10 +11973,10 @@
         <v>48400</v>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D218" t="n">
         <v>0</v>
@@ -11985,10 +11985,10 @@
         <v>0</v>
       </c>
       <c r="F218" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G218" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -11997,10 +11997,10 @@
         <v>0</v>
       </c>
       <c r="J218" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K218" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L218" t="n">
         <v>0</v>
@@ -12009,10 +12009,10 @@
         <v>0</v>
       </c>
       <c r="N218" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O218" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P218" t="n">
         <v>0</v>
@@ -12026,10 +12026,10 @@
         <v>48425</v>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D219" t="n">
         <v>0</v>
@@ -12038,10 +12038,10 @@
         <v>0</v>
       </c>
       <c r="F219" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G219" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -12050,10 +12050,10 @@
         <v>0</v>
       </c>
       <c r="J219" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="K219" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="L219" t="n">
         <v>0</v>
@@ -12062,10 +12062,10 @@
         <v>0</v>
       </c>
       <c r="N219" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O219" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="P219" t="n">
         <v>0</v>
@@ -12291,10 +12291,10 @@
         <v>48550</v>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="D224" t="n">
         <v>0</v>
@@ -12303,10 +12303,10 @@
         <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -12315,10 +12315,10 @@
         <v>0</v>
       </c>
       <c r="J224" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="K224" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L224" t="n">
         <v>0</v>
@@ -12327,10 +12327,10 @@
         <v>0</v>
       </c>
       <c r="N224" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O224" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P224" t="n">
         <v>0</v>
@@ -12344,10 +12344,10 @@
         <v>48575</v>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="D225" t="n">
         <v>0</v>
@@ -12356,10 +12356,10 @@
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="G225" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -12368,10 +12368,10 @@
         <v>0</v>
       </c>
       <c r="J225" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="K225" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="L225" t="n">
         <v>0</v>
@@ -12380,10 +12380,10 @@
         <v>0</v>
       </c>
       <c r="N225" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="O225" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P225" t="n">
         <v>0</v>
@@ -12397,10 +12397,10 @@
         <v>48600</v>
       </c>
       <c r="B226" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D226" t="n">
         <v>0</v>
@@ -12409,10 +12409,10 @@
         <v>0</v>
       </c>
       <c r="F226" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="G226" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -12421,10 +12421,10 @@
         <v>0</v>
       </c>
       <c r="J226" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="K226" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="L226" t="n">
         <v>0</v>
@@ -12433,10 +12433,10 @@
         <v>0</v>
       </c>
       <c r="N226" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="O226" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="P226" t="n">
         <v>0</v>
@@ -12450,10 +12450,10 @@
         <v>48625</v>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D227" t="n">
         <v>0</v>
@@ -12462,10 +12462,10 @@
         <v>0</v>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="G227" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -12474,10 +12474,10 @@
         <v>0</v>
       </c>
       <c r="J227" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="K227" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="L227" t="n">
         <v>0</v>
@@ -12486,10 +12486,10 @@
         <v>0</v>
       </c>
       <c r="N227" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="O227" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="P227" t="n">
         <v>0</v>
@@ -12503,10 +12503,10 @@
         <v>48650</v>
       </c>
       <c r="B228" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D228" t="n">
         <v>0</v>
@@ -12515,10 +12515,10 @@
         <v>0</v>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="G228" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -12527,10 +12527,10 @@
         <v>0</v>
       </c>
       <c r="J228" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="K228" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="L228" t="n">
         <v>0</v>
@@ -12539,10 +12539,10 @@
         <v>0</v>
       </c>
       <c r="N228" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="O228" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="P228" t="n">
         <v>0</v>
@@ -12556,10 +12556,10 @@
         <v>48675</v>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D229" t="n">
         <v>0</v>
@@ -12568,10 +12568,10 @@
         <v>0</v>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="G229" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -12580,10 +12580,10 @@
         <v>0</v>
       </c>
       <c r="J229" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="K229" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="L229" t="n">
         <v>0</v>
@@ -12592,10 +12592,10 @@
         <v>0</v>
       </c>
       <c r="N229" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="O229" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="P229" t="n">
         <v>0</v>
@@ -12609,10 +12609,10 @@
         <v>48700</v>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="D230" t="n">
         <v>0</v>
@@ -12621,10 +12621,10 @@
         <v>0</v>
       </c>
       <c r="F230" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="G230" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -12633,10 +12633,10 @@
         <v>0</v>
       </c>
       <c r="J230" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="K230" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="L230" t="n">
         <v>0</v>
@@ -12645,10 +12645,10 @@
         <v>0</v>
       </c>
       <c r="N230" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="O230" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P230" t="n">
         <v>0</v>
@@ -12662,10 +12662,10 @@
         <v>48725</v>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D231" t="n">
         <v>0</v>
@@ -12674,10 +12674,10 @@
         <v>0</v>
       </c>
       <c r="F231" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G231" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -12686,10 +12686,10 @@
         <v>0</v>
       </c>
       <c r="J231" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="K231" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="L231" t="n">
         <v>0</v>
@@ -12698,10 +12698,10 @@
         <v>0</v>
       </c>
       <c r="N231" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="O231" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P231" t="n">
         <v>0</v>
@@ -12739,10 +12739,10 @@
         <v>0</v>
       </c>
       <c r="J232" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="K232" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="L232" t="n">
         <v>0</v>
@@ -12751,10 +12751,10 @@
         <v>0</v>
       </c>
       <c r="N232" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="O232" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P232" t="n">
         <v>0</v>
@@ -12792,10 +12792,10 @@
         <v>0</v>
       </c>
       <c r="J233" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="K233" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="L233" t="n">
         <v>0</v>
@@ -12804,10 +12804,10 @@
         <v>0</v>
       </c>
       <c r="N233" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="O233" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="P233" t="n">
         <v>0</v>
@@ -12821,10 +12821,10 @@
         <v>48800</v>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D234" t="n">
         <v>0</v>
@@ -12833,10 +12833,10 @@
         <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G234" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -12845,10 +12845,10 @@
         <v>0</v>
       </c>
       <c r="J234" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="K234" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="L234" t="n">
         <v>0</v>
@@ -12857,10 +12857,10 @@
         <v>0</v>
       </c>
       <c r="N234" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="O234" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P234" t="n">
         <v>0</v>
@@ -12874,10 +12874,10 @@
         <v>48825</v>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D235" t="n">
         <v>0</v>
@@ -12886,10 +12886,10 @@
         <v>0</v>
       </c>
       <c r="F235" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G235" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -12898,10 +12898,10 @@
         <v>0</v>
       </c>
       <c r="J235" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="K235" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="L235" t="n">
         <v>0</v>
@@ -12910,10 +12910,10 @@
         <v>0</v>
       </c>
       <c r="N235" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O235" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="P235" t="n">
         <v>0</v>
@@ -12927,10 +12927,10 @@
         <v>48850</v>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D236" t="n">
         <v>0</v>
@@ -12939,10 +12939,10 @@
         <v>0</v>
       </c>
       <c r="F236" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G236" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -12951,10 +12951,10 @@
         <v>0</v>
       </c>
       <c r="J236" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K236" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L236" t="n">
         <v>0</v>
@@ -12963,10 +12963,10 @@
         <v>0</v>
       </c>
       <c r="N236" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O236" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P236" t="n">
         <v>0</v>
@@ -12980,10 +12980,10 @@
         <v>48875</v>
       </c>
       <c r="B237" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D237" t="n">
         <v>0</v>
@@ -12992,10 +12992,10 @@
         <v>0</v>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G237" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -13004,10 +13004,10 @@
         <v>0</v>
       </c>
       <c r="J237" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K237" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L237" t="n">
         <v>0</v>
@@ -13016,10 +13016,10 @@
         <v>0</v>
       </c>
       <c r="N237" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O237" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P237" t="n">
         <v>0</v>
@@ -13033,10 +13033,10 @@
         <v>48900</v>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D238" t="n">
         <v>0</v>
@@ -13045,10 +13045,10 @@
         <v>0</v>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G238" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -13057,10 +13057,10 @@
         <v>0</v>
       </c>
       <c r="J238" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K238" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L238" t="n">
         <v>0</v>
@@ -13069,10 +13069,10 @@
         <v>0</v>
       </c>
       <c r="N238" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O238" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P238" t="n">
         <v>0</v>
@@ -13086,10 +13086,10 @@
         <v>48925</v>
       </c>
       <c r="B239" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D239" t="n">
         <v>0</v>
@@ -13098,10 +13098,10 @@
         <v>0</v>
       </c>
       <c r="F239" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G239" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -13110,10 +13110,10 @@
         <v>0</v>
       </c>
       <c r="J239" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K239" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L239" t="n">
         <v>0</v>
@@ -13122,10 +13122,10 @@
         <v>0</v>
       </c>
       <c r="N239" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O239" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P239" t="n">
         <v>0</v>
@@ -13139,10 +13139,10 @@
         <v>48950</v>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D240" t="n">
         <v>0</v>
@@ -13151,10 +13151,10 @@
         <v>0</v>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G240" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -13163,10 +13163,10 @@
         <v>0</v>
       </c>
       <c r="J240" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K240" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L240" t="n">
         <v>0</v>
@@ -13175,10 +13175,10 @@
         <v>0</v>
       </c>
       <c r="N240" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O240" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P240" t="n">
         <v>0</v>
@@ -13192,10 +13192,10 @@
         <v>48975</v>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D241" t="n">
         <v>0</v>
@@ -13204,10 +13204,10 @@
         <v>0</v>
       </c>
       <c r="F241" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G241" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -13216,10 +13216,10 @@
         <v>0</v>
       </c>
       <c r="J241" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K241" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L241" t="n">
         <v>0</v>
@@ -13228,10 +13228,10 @@
         <v>0</v>
       </c>
       <c r="N241" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O241" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P241" t="n">
         <v>0</v>
@@ -13245,10 +13245,10 @@
         <v>49000</v>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D242" t="n">
         <v>0</v>
@@ -13257,10 +13257,10 @@
         <v>0</v>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G242" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -13269,10 +13269,10 @@
         <v>0</v>
       </c>
       <c r="J242" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K242" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L242" t="n">
         <v>0</v>
@@ -13281,10 +13281,10 @@
         <v>0</v>
       </c>
       <c r="N242" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O242" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P242" t="n">
         <v>0</v>
@@ -13298,10 +13298,10 @@
         <v>49025</v>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D243" t="n">
         <v>0</v>
@@ -13310,10 +13310,10 @@
         <v>0</v>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G243" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -13322,10 +13322,10 @@
         <v>0</v>
       </c>
       <c r="J243" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K243" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L243" t="n">
         <v>0</v>
@@ -13334,10 +13334,10 @@
         <v>0</v>
       </c>
       <c r="N243" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O243" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P243" t="n">
         <v>0</v>
@@ -13351,10 +13351,10 @@
         <v>49050</v>
       </c>
       <c r="B244" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D244" t="n">
         <v>0</v>
@@ -13363,10 +13363,10 @@
         <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G244" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -13375,10 +13375,10 @@
         <v>0</v>
       </c>
       <c r="J244" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K244" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L244" t="n">
         <v>0</v>
@@ -13387,10 +13387,10 @@
         <v>0</v>
       </c>
       <c r="N244" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O244" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P244" t="n">
         <v>0</v>
@@ -13640,10 +13640,10 @@
         <v>0</v>
       </c>
       <c r="J249" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="K249" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="L249" t="n">
         <v>0</v>
@@ -13652,10 +13652,10 @@
         <v>0</v>
       </c>
       <c r="N249" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O249" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P249" t="n">
         <v>0</v>
@@ -13669,10 +13669,10 @@
         <v>49200</v>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D250" t="n">
         <v>0</v>
@@ -13681,10 +13681,10 @@
         <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="G250" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -13693,10 +13693,10 @@
         <v>0</v>
       </c>
       <c r="J250" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="K250" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="L250" t="n">
         <v>0</v>
@@ -13705,10 +13705,10 @@
         <v>0</v>
       </c>
       <c r="N250" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O250" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P250" t="n">
         <v>0</v>
@@ -13746,10 +13746,10 @@
         <v>0</v>
       </c>
       <c r="J251" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="K251" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="L251" t="n">
         <v>0</v>
@@ -13758,10 +13758,10 @@
         <v>0</v>
       </c>
       <c r="N251" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O251" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P251" t="n">
         <v>0</v>
@@ -14570,10 +14570,10 @@
         <v>49625</v>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D267" t="n">
         <v>0</v>
@@ -14582,10 +14582,10 @@
         <v>0</v>
       </c>
       <c r="F267" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="G267" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -14594,10 +14594,10 @@
         <v>0</v>
       </c>
       <c r="J267" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="K267" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L267" t="n">
         <v>0</v>
@@ -14606,10 +14606,10 @@
         <v>0</v>
       </c>
       <c r="N267" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O267" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P267" t="n">
         <v>0</v>
@@ -15047,10 +15047,10 @@
         <v>49850</v>
       </c>
       <c r="B276" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="C276" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D276" t="n">
         <v>0</v>
@@ -15083,10 +15083,10 @@
         <v>0</v>
       </c>
       <c r="N276" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="O276" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P276" t="n">
         <v>0</v>
@@ -16001,10 +16001,10 @@
         <v>50300</v>
       </c>
       <c r="B294" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="C294" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="D294" t="n">
         <v>0</v>
@@ -16037,10 +16037,10 @@
         <v>0</v>
       </c>
       <c r="N294" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="O294" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P294" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>54475</v>
       </c>
       <c r="B461" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C461" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="D461" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="N461" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O461" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P461" t="n">
         <v>0</v>
@@ -25011,10 +25011,10 @@
         <v>54550</v>
       </c>
       <c r="B464" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C464" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="D464" t="n">
         <v>0</v>
@@ -25047,10 +25047,10 @@
         <v>0</v>
       </c>
       <c r="N464" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O464" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="P464" t="n">
         <v>0</v>
@@ -25064,10 +25064,10 @@
         <v>54575</v>
       </c>
       <c r="B465" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C465" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="D465" t="n">
         <v>0</v>
@@ -25100,10 +25100,10 @@
         <v>0</v>
       </c>
       <c r="N465" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O465" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="P465" t="n">
         <v>0</v>
@@ -25247,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="J468" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="K468" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="L468" t="n">
         <v>0</v>
@@ -25259,10 +25259,10 @@
         <v>0</v>
       </c>
       <c r="N468" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O468" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P468" t="n">
         <v>0</v>
@@ -25276,10 +25276,10 @@
         <v>54675</v>
       </c>
       <c r="B469" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="C469" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D469" t="n">
         <v>0</v>
@@ -25288,10 +25288,10 @@
         <v>0</v>
       </c>
       <c r="F469" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="G469" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H469" t="n">
         <v>0</v>
@@ -25300,10 +25300,10 @@
         <v>0</v>
       </c>
       <c r="J469" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="K469" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="L469" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="N469" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O469" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P469" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>54700</v>
       </c>
       <c r="B470" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C470" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D470" t="n">
         <v>0</v>
@@ -25341,10 +25341,10 @@
         <v>0</v>
       </c>
       <c r="F470" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G470" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H470" t="n">
         <v>0</v>
@@ -25353,10 +25353,10 @@
         <v>0</v>
       </c>
       <c r="J470" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="K470" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="L470" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="N470" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O470" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="P470" t="n">
         <v>0</v>
@@ -25435,10 +25435,10 @@
         <v>54750</v>
       </c>
       <c r="B472" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C472" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D472" t="n">
         <v>0</v>
@@ -25447,10 +25447,10 @@
         <v>0</v>
       </c>
       <c r="F472" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G472" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H472" t="n">
         <v>0</v>
@@ -25459,10 +25459,10 @@
         <v>0</v>
       </c>
       <c r="J472" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="K472" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="L472" t="n">
         <v>0</v>
@@ -25471,10 +25471,10 @@
         <v>0</v>
       </c>
       <c r="N472" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O472" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P472" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>54825</v>
       </c>
       <c r="B475" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="C475" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D475" t="n">
         <v>0</v>
@@ -25606,10 +25606,10 @@
         <v>0</v>
       </c>
       <c r="F475" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="G475" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="H475" t="n">
         <v>0</v>
@@ -25618,10 +25618,10 @@
         <v>0</v>
       </c>
       <c r="J475" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="K475" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="L475" t="n">
         <v>0</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="N475" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O475" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P475" t="n">
         <v>0</v>
@@ -25671,10 +25671,10 @@
         <v>0</v>
       </c>
       <c r="J476" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="K476" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="L476" t="n">
         <v>0</v>
@@ -25683,10 +25683,10 @@
         <v>0</v>
       </c>
       <c r="N476" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O476" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P476" t="n">
         <v>0</v>
@@ -25806,10 +25806,10 @@
         <v>54925</v>
       </c>
       <c r="B479" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C479" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D479" t="n">
         <v>0</v>
@@ -25818,10 +25818,10 @@
         <v>0</v>
       </c>
       <c r="F479" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G479" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H479" t="n">
         <v>0</v>
@@ -25830,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="J479" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="K479" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="L479" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="N479" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O479" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P479" t="n">
         <v>0</v>
@@ -25883,10 +25883,10 @@
         <v>0</v>
       </c>
       <c r="J480" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="K480" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="L480" t="n">
         <v>0</v>
@@ -25895,10 +25895,10 @@
         <v>0</v>
       </c>
       <c r="N480" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="O480" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P480" t="n">
         <v>0</v>
@@ -25912,10 +25912,10 @@
         <v>54975</v>
       </c>
       <c r="B481" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="C481" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D481" t="n">
         <v>0</v>
@@ -25924,10 +25924,10 @@
         <v>0</v>
       </c>
       <c r="F481" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="G481" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H481" t="n">
         <v>0</v>
@@ -25936,10 +25936,10 @@
         <v>0</v>
       </c>
       <c r="J481" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="K481" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="L481" t="n">
         <v>0</v>
@@ -25948,10 +25948,10 @@
         <v>0</v>
       </c>
       <c r="N481" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O481" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P481" t="n">
         <v>0</v>
@@ -25965,10 +25965,10 @@
         <v>55000</v>
       </c>
       <c r="B482" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="C482" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="D482" t="n">
         <v>0</v>
@@ -25977,10 +25977,10 @@
         <v>0</v>
       </c>
       <c r="F482" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="G482" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="H482" t="n">
         <v>0</v>
@@ -25989,10 +25989,10 @@
         <v>0</v>
       </c>
       <c r="J482" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="K482" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="L482" t="n">
         <v>0</v>
@@ -26001,10 +26001,10 @@
         <v>0</v>
       </c>
       <c r="N482" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="O482" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P482" t="n">
         <v>0</v>
@@ -26042,10 +26042,10 @@
         <v>0</v>
       </c>
       <c r="J483" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="K483" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L483" t="n">
         <v>0</v>
@@ -26054,10 +26054,10 @@
         <v>0</v>
       </c>
       <c r="N483" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="O483" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P483" t="n">
         <v>0</v>
@@ -26495,10 +26495,10 @@
         <v>55250</v>
       </c>
       <c r="B492" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="C492" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="D492" t="n">
         <v>0</v>
@@ -26507,10 +26507,10 @@
         <v>0</v>
       </c>
       <c r="F492" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="G492" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="H492" t="n">
         <v>0</v>
@@ -26519,10 +26519,10 @@
         <v>0</v>
       </c>
       <c r="J492" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="K492" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="L492" t="n">
         <v>0</v>
@@ -26531,10 +26531,10 @@
         <v>0</v>
       </c>
       <c r="N492" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O492" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P492" t="n">
         <v>0</v>
@@ -26548,10 +26548,10 @@
         <v>55275</v>
       </c>
       <c r="B493" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="C493" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="D493" t="n">
         <v>0</v>
@@ -26560,10 +26560,10 @@
         <v>0</v>
       </c>
       <c r="F493" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G493" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="H493" t="n">
         <v>0</v>
@@ -26572,10 +26572,10 @@
         <v>0</v>
       </c>
       <c r="J493" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="K493" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="L493" t="n">
         <v>0</v>
@@ -26584,10 +26584,10 @@
         <v>0</v>
       </c>
       <c r="N493" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="O493" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="P493" t="n">
         <v>0</v>
@@ -26601,10 +26601,10 @@
         <v>55300</v>
       </c>
       <c r="B494" t="n">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="C494" t="n">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="D494" t="n">
         <v>0</v>
@@ -26613,10 +26613,10 @@
         <v>0</v>
       </c>
       <c r="F494" t="n">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="G494" t="n">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="H494" t="n">
         <v>0</v>
@@ -26625,10 +26625,10 @@
         <v>0</v>
       </c>
       <c r="J494" t="n">
-        <v>0.28</v>
+        <v>0.11</v>
       </c>
       <c r="K494" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="L494" t="n">
         <v>0</v>
@@ -26637,10 +26637,10 @@
         <v>0</v>
       </c>
       <c r="N494" t="n">
-        <v>0.28</v>
+        <v>0.11</v>
       </c>
       <c r="O494" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="P494" t="n">
         <v>0</v>
@@ -26654,10 +26654,10 @@
         <v>55325</v>
       </c>
       <c r="B495" t="n">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
       <c r="C495" t="n">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
       <c r="D495" t="n">
         <v>0</v>
@@ -26666,10 +26666,10 @@
         <v>0</v>
       </c>
       <c r="F495" t="n">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="G495" t="n">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="H495" t="n">
         <v>0</v>
@@ -26678,25 +26678,25 @@
         <v>0</v>
       </c>
       <c r="J495" t="n">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="K495" t="n">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="L495" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="M495" t="n">
         <v>0</v>
       </c>
       <c r="N495" t="n">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="O495" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="P495" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="Q495" t="n">
         <v>0</v>
@@ -26707,10 +26707,10 @@
         <v>55350</v>
       </c>
       <c r="B496" t="n">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="C496" t="n">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="D496" t="n">
         <v>0</v>
@@ -26719,10 +26719,10 @@
         <v>0</v>
       </c>
       <c r="F496" t="n">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
       <c r="G496" t="n">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
       <c r="H496" t="n">
         <v>0</v>
@@ -26731,25 +26731,25 @@
         <v>0</v>
       </c>
       <c r="J496" t="n">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="K496" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="L496" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M496" t="n">
         <v>0</v>
       </c>
       <c r="N496" t="n">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="O496" t="n">
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
       <c r="P496" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="Q496" t="n">
         <v>0</v>
@@ -26760,10 +26760,10 @@
         <v>55375</v>
       </c>
       <c r="B497" t="n">
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
       <c r="C497" t="n">
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
       <c r="D497" t="n">
         <v>0</v>
@@ -26772,10 +26772,10 @@
         <v>0</v>
       </c>
       <c r="F497" t="n">
-        <v>0.42</v>
+        <v>0.26</v>
       </c>
       <c r="G497" t="n">
-        <v>0.42</v>
+        <v>0.26</v>
       </c>
       <c r="H497" t="n">
         <v>0</v>
@@ -26784,28 +26784,28 @@
         <v>0</v>
       </c>
       <c r="J497" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="K497" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="L497" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="M497" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N497" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="O497" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="P497" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="Q497" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -26813,49 +26813,49 @@
         <v>55400</v>
       </c>
       <c r="B498" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="C498" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="D498" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E498" t="n">
         <v>0</v>
       </c>
       <c r="F498" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="G498" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
       </c>
       <c r="J498" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K498" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L498" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="M498" t="n">
         <v>0</v>
       </c>
       <c r="N498" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O498" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P498" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q498" t="n">
         <v>0</v>
@@ -26872,10 +26872,10 @@
         <v>0.21</v>
       </c>
       <c r="D499" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="E499" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="F499" t="n">
         <v>0.21</v>
@@ -26884,31 +26884,31 @@
         <v>0.21</v>
       </c>
       <c r="H499" t="n">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="I499" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="J499" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="K499" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="L499" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="M499" t="n">
         <v>0</v>
       </c>
       <c r="N499" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="O499" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="P499" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="Q499" t="n">
         <v>0</v>
@@ -26925,10 +26925,10 @@
         <v>0.21</v>
       </c>
       <c r="D500" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="E500" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F500" t="n">
         <v>0.21</v>
@@ -26937,31 +26937,31 @@
         <v>0.21</v>
       </c>
       <c r="H500" t="n">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="I500" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="J500" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="K500" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="L500" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="M500" t="n">
         <v>0</v>
       </c>
       <c r="N500" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="O500" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="P500" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Q500" t="n">
         <v>0</v>
@@ -26972,13 +26972,13 @@
         <v>55475</v>
       </c>
       <c r="B501" t="n">
-        <v>0.29</v>
+        <v>0.36</v>
       </c>
       <c r="C501" t="n">
-        <v>0.29</v>
+        <v>0.36</v>
       </c>
       <c r="D501" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="E501" t="n">
         <v>0</v>
@@ -26990,31 +26990,31 @@
         <v>0.29</v>
       </c>
       <c r="H501" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
       </c>
       <c r="J501" t="n">
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
       <c r="K501" t="n">
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
       <c r="L501" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="M501" t="n">
         <v>0</v>
       </c>
       <c r="N501" t="n">
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
       <c r="O501" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="P501" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="Q501" t="n">
         <v>0</v>
@@ -27025,13 +27025,13 @@
         <v>55500</v>
       </c>
       <c r="B502" t="n">
-        <v>0.28</v>
+        <v>0.37</v>
       </c>
       <c r="C502" t="n">
-        <v>0.28</v>
+        <v>0.37</v>
       </c>
       <c r="D502" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="E502" t="n">
         <v>0</v>
@@ -27043,16 +27043,16 @@
         <v>0.28</v>
       </c>
       <c r="H502" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
       </c>
       <c r="J502" t="n">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="K502" t="n">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="L502" t="n">
         <v>0</v>
@@ -27061,10 +27061,10 @@
         <v>0</v>
       </c>
       <c r="N502" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="O502" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="P502" t="n">
         <v>0</v>
@@ -27078,10 +27078,10 @@
         <v>55525</v>
       </c>
       <c r="B503" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="C503" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="D503" t="n">
         <v>0</v>
@@ -27090,23 +27090,23 @@
         <v>0</v>
       </c>
       <c r="F503" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G503" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H503" t="n">
+        <v>0</v>
+      </c>
+      <c r="I503" t="n">
+        <v>0</v>
+      </c>
+      <c r="J503" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K503" t="n">
         <v>0.3</v>
       </c>
-      <c r="G503" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="n">
-        <v>0</v>
-      </c>
-      <c r="J503" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K503" t="n">
-        <v>0.29</v>
-      </c>
       <c r="L503" t="n">
         <v>0</v>
       </c>
@@ -27114,10 +27114,10 @@
         <v>0</v>
       </c>
       <c r="N503" t="n">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="O503" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="P503" t="n">
         <v>0</v>
@@ -27131,10 +27131,10 @@
         <v>55550</v>
       </c>
       <c r="B504" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="C504" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="D504" t="n">
         <v>0</v>
@@ -27143,10 +27143,10 @@
         <v>0</v>
       </c>
       <c r="F504" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="G504" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="H504" t="n">
         <v>0</v>
@@ -27155,10 +27155,10 @@
         <v>0</v>
       </c>
       <c r="J504" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="K504" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="L504" t="n">
         <v>0</v>
@@ -27167,10 +27167,10 @@
         <v>0</v>
       </c>
       <c r="N504" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="O504" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="P504" t="n">
         <v>0</v>
@@ -27184,10 +27184,10 @@
         <v>55575</v>
       </c>
       <c r="B505" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="C505" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="D505" t="n">
         <v>0</v>
@@ -27196,10 +27196,10 @@
         <v>0</v>
       </c>
       <c r="F505" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="G505" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="H505" t="n">
         <v>0</v>
@@ -27208,10 +27208,10 @@
         <v>0</v>
       </c>
       <c r="J505" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="K505" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="L505" t="n">
         <v>0</v>
@@ -27220,10 +27220,10 @@
         <v>0</v>
       </c>
       <c r="N505" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="O505" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="P505" t="n">
         <v>0</v>
@@ -27237,10 +27237,10 @@
         <v>55600</v>
       </c>
       <c r="B506" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="C506" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="D506" t="n">
         <v>0</v>
@@ -27249,10 +27249,10 @@
         <v>0</v>
       </c>
       <c r="F506" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="G506" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="H506" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="J506" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
       <c r="K506" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="L506" t="n">
         <v>0</v>
@@ -27273,10 +27273,10 @@
         <v>0</v>
       </c>
       <c r="N506" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
       <c r="O506" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="P506" t="n">
         <v>0</v>
@@ -27290,10 +27290,10 @@
         <v>55625</v>
       </c>
       <c r="B507" t="n">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="C507" t="n">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="D507" t="n">
         <v>0</v>
@@ -27302,10 +27302,10 @@
         <v>0</v>
       </c>
       <c r="F507" t="n">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
       <c r="G507" t="n">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
       <c r="H507" t="n">
         <v>0</v>
@@ -27314,10 +27314,10 @@
         <v>0</v>
       </c>
       <c r="J507" t="n">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
       <c r="K507" t="n">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
       <c r="L507" t="n">
         <v>0</v>
@@ -27326,10 +27326,10 @@
         <v>0</v>
       </c>
       <c r="N507" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="O507" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="P507" t="n">
         <v>0</v>
@@ -27343,10 +27343,10 @@
         <v>55650</v>
       </c>
       <c r="B508" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="C508" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="D508" t="n">
         <v>0</v>
@@ -27355,10 +27355,10 @@
         <v>0</v>
       </c>
       <c r="F508" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="G508" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="H508" t="n">
         <v>0</v>
@@ -27367,10 +27367,10 @@
         <v>0</v>
       </c>
       <c r="J508" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="K508" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L508" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="N508" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="O508" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P508" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>55675</v>
       </c>
       <c r="B509" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="C509" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="D509" t="n">
         <v>0</v>
@@ -27408,10 +27408,10 @@
         <v>0</v>
       </c>
       <c r="F509" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="G509" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="H509" t="n">
         <v>0</v>
@@ -27420,10 +27420,10 @@
         <v>0</v>
       </c>
       <c r="J509" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="K509" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="L509" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="N509" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O509" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P509" t="n">
         <v>0</v>
@@ -27449,10 +27449,10 @@
         <v>55700</v>
       </c>
       <c r="B510" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="C510" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="D510" t="n">
         <v>0</v>
@@ -27461,10 +27461,10 @@
         <v>0</v>
       </c>
       <c r="F510" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="G510" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="H510" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="J510" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="K510" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="L510" t="n">
         <v>0</v>
@@ -27485,10 +27485,10 @@
         <v>0</v>
       </c>
       <c r="N510" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O510" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P510" t="n">
         <v>0</v>
@@ -27502,10 +27502,10 @@
         <v>55725</v>
       </c>
       <c r="B511" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="C511" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D511" t="n">
         <v>0</v>
@@ -27514,10 +27514,10 @@
         <v>0</v>
       </c>
       <c r="F511" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="G511" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="H511" t="n">
         <v>0</v>
@@ -27526,10 +27526,10 @@
         <v>0</v>
       </c>
       <c r="J511" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="K511" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="L511" t="n">
         <v>0</v>
@@ -27538,10 +27538,10 @@
         <v>0</v>
       </c>
       <c r="N511" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O511" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P511" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>55750</v>
       </c>
       <c r="B512" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="C512" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="D512" t="n">
         <v>0</v>
@@ -27567,10 +27567,10 @@
         <v>0</v>
       </c>
       <c r="F512" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="G512" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="H512" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="J512" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="K512" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="L512" t="n">
         <v>0</v>
@@ -27591,10 +27591,10 @@
         <v>0</v>
       </c>
       <c r="N512" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O512" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P512" t="n">
         <v>0</v>
@@ -27608,10 +27608,10 @@
         <v>55775</v>
       </c>
       <c r="B513" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C513" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="D513" t="n">
         <v>0</v>
@@ -27620,10 +27620,10 @@
         <v>0</v>
       </c>
       <c r="F513" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="G513" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="H513" t="n">
         <v>0</v>
@@ -27632,10 +27632,10 @@
         <v>0</v>
       </c>
       <c r="J513" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="K513" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L513" t="n">
         <v>0</v>
@@ -27644,10 +27644,10 @@
         <v>0</v>
       </c>
       <c r="N513" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="O513" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P513" t="n">
         <v>0</v>
@@ -27661,23 +27661,23 @@
         <v>55800</v>
       </c>
       <c r="B514" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C514" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D514" t="n">
+        <v>0</v>
+      </c>
+      <c r="E514" t="n">
+        <v>0</v>
+      </c>
+      <c r="F514" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G514" t="n">
         <v>0.11</v>
       </c>
-      <c r="C514" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="D514" t="n">
-        <v>0</v>
-      </c>
-      <c r="E514" t="n">
-        <v>0</v>
-      </c>
-      <c r="F514" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="G514" t="n">
-        <v>0.17</v>
-      </c>
       <c r="H514" t="n">
         <v>0</v>
       </c>
@@ -27685,7 +27685,7 @@
         <v>0</v>
       </c>
       <c r="J514" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="K514" t="n">
         <v>0.13</v>
@@ -27697,7 +27697,7 @@
         <v>0</v>
       </c>
       <c r="N514" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="O514" t="n">
         <v>0.3</v>
@@ -27714,10 +27714,10 @@
         <v>55825</v>
       </c>
       <c r="B515" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="C515" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="D515" t="n">
         <v>0</v>
@@ -27726,10 +27726,10 @@
         <v>0</v>
       </c>
       <c r="F515" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="G515" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="H515" t="n">
         <v>0</v>
@@ -27738,10 +27738,10 @@
         <v>0</v>
       </c>
       <c r="J515" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="K515" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="L515" t="n">
         <v>0</v>
@@ -27750,10 +27750,10 @@
         <v>0</v>
       </c>
       <c r="N515" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="O515" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="P515" t="n">
         <v>0</v>
@@ -27767,11 +27767,11 @@
         <v>55850</v>
       </c>
       <c r="B516" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="C516" t="n">
         <v>0.27</v>
       </c>
-      <c r="C516" t="n">
-        <v>0.26</v>
-      </c>
       <c r="D516" t="n">
         <v>0</v>
       </c>
@@ -27779,10 +27779,10 @@
         <v>0</v>
       </c>
       <c r="F516" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="G516" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="H516" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="J516" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="K516" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="L516" t="n">
         <v>0</v>
@@ -27803,10 +27803,10 @@
         <v>0</v>
       </c>
       <c r="N516" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="O516" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="P516" t="n">
         <v>0</v>
@@ -27826,7 +27826,7 @@
         <v>0.15</v>
       </c>
       <c r="D517" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="E517" t="n">
         <v>0</v>
@@ -27838,13 +27838,13 @@
         <v>0.15</v>
       </c>
       <c r="H517" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
       </c>
       <c r="J517" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="K517" t="n">
         <v>0.15</v>
@@ -27856,10 +27856,10 @@
         <v>0</v>
       </c>
       <c r="N517" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="O517" t="n">
         <v>0.28</v>
-      </c>
-      <c r="O517" t="n">
-        <v>0.27</v>
       </c>
       <c r="P517" t="n">
         <v>0</v>
@@ -27873,10 +27873,10 @@
         <v>55900</v>
       </c>
       <c r="B518" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="C518" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="D518" t="n">
         <v>0.12</v>
@@ -27885,19 +27885,19 @@
         <v>0</v>
       </c>
       <c r="F518" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="G518" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="H518" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
       </c>
       <c r="J518" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="K518" t="n">
         <v>0.14</v>
@@ -27909,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="N518" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="O518" t="n">
         <v>0.26</v>
@@ -27929,7 +27929,7 @@
         <v>0.21</v>
       </c>
       <c r="C519" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="D519" t="n">
         <v>0</v>
@@ -27941,7 +27941,7 @@
         <v>0.21</v>
       </c>
       <c r="G519" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="H519" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="J519" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="K519" t="n">
         <v>0.12</v>
@@ -27962,7 +27962,7 @@
         <v>0</v>
       </c>
       <c r="N519" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="O519" t="n">
         <v>0.25</v>
@@ -27979,7 +27979,7 @@
         <v>55950</v>
       </c>
       <c r="B520" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="C520" t="n">
         <v>0.18</v>
@@ -27991,7 +27991,7 @@
         <v>0</v>
       </c>
       <c r="F520" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="G520" t="n">
         <v>0.23</v>
@@ -28003,10 +28003,10 @@
         <v>0</v>
       </c>
       <c r="J520" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="K520" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="L520" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>55975</v>
       </c>
       <c r="B521" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="C521" t="n">
         <v>0.15</v>
@@ -28044,7 +28044,7 @@
         <v>0</v>
       </c>
       <c r="F521" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="G521" t="n">
         <v>0.25</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="J521" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="K521" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="L521" t="n">
         <v>0</v>
@@ -28068,10 +28068,10 @@
         <v>0</v>
       </c>
       <c r="N521" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="O521" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="P521" t="n">
         <v>0</v>
@@ -28100,7 +28100,7 @@
         <v>0.27</v>
       </c>
       <c r="G522" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="H522" t="n">
         <v>0</v>
@@ -28109,10 +28109,10 @@
         <v>0</v>
       </c>
       <c r="J522" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="K522" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="L522" t="n">
         <v>0</v>
@@ -28174,10 +28174,10 @@
         <v>0</v>
       </c>
       <c r="N523" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="O523" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="P523" t="n">
         <v>0</v>
@@ -28721,10 +28721,10 @@
         <v>56300</v>
       </c>
       <c r="B534" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="C534" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="D534" t="n">
         <v>0</v>
@@ -28757,10 +28757,10 @@
         <v>0</v>
       </c>
       <c r="N534" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O534" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P534" t="n">
         <v>0</v>
@@ -28933,10 +28933,10 @@
         <v>56400</v>
       </c>
       <c r="B538" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C538" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D538" t="n">
         <v>0</v>
@@ -28969,10 +28969,10 @@
         <v>0</v>
       </c>
       <c r="N538" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O538" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P538" t="n">
         <v>0</v>
@@ -29198,10 +29198,10 @@
         <v>56525</v>
       </c>
       <c r="B543" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C543" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D543" t="n">
         <v>0</v>
@@ -29234,10 +29234,10 @@
         <v>0</v>
       </c>
       <c r="N543" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O543" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P543" t="n">
         <v>0</v>
@@ -29251,10 +29251,10 @@
         <v>56550</v>
       </c>
       <c r="B544" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C544" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D544" t="n">
         <v>0</v>
@@ -29287,10 +29287,10 @@
         <v>0</v>
       </c>
       <c r="N544" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O544" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P544" t="n">
         <v>0</v>
@@ -29304,10 +29304,10 @@
         <v>56575</v>
       </c>
       <c r="B545" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C545" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D545" t="n">
         <v>0</v>
@@ -29340,10 +29340,10 @@
         <v>0</v>
       </c>
       <c r="N545" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O545" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P545" t="n">
         <v>0</v>
@@ -29357,10 +29357,10 @@
         <v>56600</v>
       </c>
       <c r="B546" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C546" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D546" t="n">
         <v>0</v>
@@ -29393,10 +29393,10 @@
         <v>0</v>
       </c>
       <c r="N546" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O546" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P546" t="n">
         <v>0</v>
@@ -29410,10 +29410,10 @@
         <v>56625</v>
       </c>
       <c r="B547" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C547" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D547" t="n">
         <v>0</v>
@@ -29446,10 +29446,10 @@
         <v>0</v>
       </c>
       <c r="N547" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O547" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P547" t="n">
         <v>0</v>
@@ -29463,10 +29463,10 @@
         <v>56650</v>
       </c>
       <c r="B548" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C548" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D548" t="n">
         <v>0</v>
@@ -29499,10 +29499,10 @@
         <v>0</v>
       </c>
       <c r="N548" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O548" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P548" t="n">
         <v>0</v>
@@ -29516,10 +29516,10 @@
         <v>56675</v>
       </c>
       <c r="B549" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C549" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D549" t="n">
         <v>0</v>
@@ -29552,10 +29552,10 @@
         <v>0</v>
       </c>
       <c r="N549" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O549" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P549" t="n">
         <v>0</v>
@@ -29569,10 +29569,10 @@
         <v>56700</v>
       </c>
       <c r="B550" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C550" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D550" t="n">
         <v>0</v>
@@ -29605,10 +29605,10 @@
         <v>0</v>
       </c>
       <c r="N550" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O550" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P550" t="n">
         <v>0</v>
@@ -29622,10 +29622,10 @@
         <v>56725</v>
       </c>
       <c r="B551" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C551" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D551" t="n">
         <v>0</v>
@@ -29658,10 +29658,10 @@
         <v>0</v>
       </c>
       <c r="N551" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O551" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P551" t="n">
         <v>0</v>
@@ -29675,10 +29675,10 @@
         <v>56750</v>
       </c>
       <c r="B552" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C552" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D552" t="n">
         <v>0</v>
@@ -29711,10 +29711,10 @@
         <v>0</v>
       </c>
       <c r="N552" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O552" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P552" t="n">
         <v>0</v>
@@ -29728,10 +29728,10 @@
         <v>56775</v>
       </c>
       <c r="B553" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C553" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D553" t="n">
         <v>0</v>
@@ -29764,10 +29764,10 @@
         <v>0</v>
       </c>
       <c r="N553" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O553" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P553" t="n">
         <v>0</v>
@@ -29781,10 +29781,10 @@
         <v>56800</v>
       </c>
       <c r="B554" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C554" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D554" t="n">
         <v>0</v>
@@ -29817,10 +29817,10 @@
         <v>0</v>
       </c>
       <c r="N554" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O554" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P554" t="n">
         <v>0</v>
@@ -29834,10 +29834,10 @@
         <v>56825</v>
       </c>
       <c r="B555" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C555" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D555" t="n">
         <v>0</v>
@@ -29870,10 +29870,10 @@
         <v>0</v>
       </c>
       <c r="N555" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O555" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P555" t="n">
         <v>0</v>
@@ -29887,10 +29887,10 @@
         <v>56850</v>
       </c>
       <c r="B556" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C556" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D556" t="n">
         <v>0</v>
@@ -29923,10 +29923,10 @@
         <v>0</v>
       </c>
       <c r="N556" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O556" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P556" t="n">
         <v>0</v>
@@ -29940,10 +29940,10 @@
         <v>56875</v>
       </c>
       <c r="B557" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C557" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D557" t="n">
         <v>0</v>
@@ -29976,10 +29976,10 @@
         <v>0</v>
       </c>
       <c r="N557" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O557" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P557" t="n">
         <v>0</v>
@@ -29993,10 +29993,10 @@
         <v>56900</v>
       </c>
       <c r="B558" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C558" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D558" t="n">
         <v>0</v>
@@ -30029,10 +30029,10 @@
         <v>0</v>
       </c>
       <c r="N558" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O558" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P558" t="n">
         <v>0</v>
@@ -30046,10 +30046,10 @@
         <v>56925</v>
       </c>
       <c r="B559" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C559" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D559" t="n">
         <v>0</v>
@@ -30082,10 +30082,10 @@
         <v>0</v>
       </c>
       <c r="N559" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O559" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P559" t="n">
         <v>0</v>
@@ -30099,10 +30099,10 @@
         <v>56950</v>
       </c>
       <c r="B560" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C560" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D560" t="n">
         <v>0</v>
@@ -30135,10 +30135,10 @@
         <v>0</v>
       </c>
       <c r="N560" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O560" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P560" t="n">
         <v>0</v>
@@ -30152,46 +30152,46 @@
         <v>56975</v>
       </c>
       <c r="B561" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="C561" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D561" t="n">
+        <v>0</v>
+      </c>
+      <c r="E561" t="n">
+        <v>0</v>
+      </c>
+      <c r="F561" t="n">
+        <v>0</v>
+      </c>
+      <c r="G561" t="n">
+        <v>0</v>
+      </c>
+      <c r="H561" t="n">
+        <v>0</v>
+      </c>
+      <c r="I561" t="n">
+        <v>0</v>
+      </c>
+      <c r="J561" t="n">
+        <v>0</v>
+      </c>
+      <c r="K561" t="n">
+        <v>0</v>
+      </c>
+      <c r="L561" t="n">
+        <v>0</v>
+      </c>
+      <c r="M561" t="n">
+        <v>0</v>
+      </c>
+      <c r="N561" t="n">
         <v>0.13</v>
       </c>
-      <c r="D561" t="n">
-        <v>0</v>
-      </c>
-      <c r="E561" t="n">
-        <v>0</v>
-      </c>
-      <c r="F561" t="n">
-        <v>0</v>
-      </c>
-      <c r="G561" t="n">
-        <v>0</v>
-      </c>
-      <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="n">
-        <v>0</v>
-      </c>
-      <c r="J561" t="n">
-        <v>0</v>
-      </c>
-      <c r="K561" t="n">
-        <v>0</v>
-      </c>
-      <c r="L561" t="n">
-        <v>0</v>
-      </c>
-      <c r="M561" t="n">
-        <v>0</v>
-      </c>
-      <c r="N561" t="n">
-        <v>0.14</v>
-      </c>
       <c r="O561" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="P561" t="n">
         <v>0</v>
@@ -30205,10 +30205,10 @@
         <v>57000</v>
       </c>
       <c r="B562" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="C562" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="D562" t="n">
         <v>0</v>
@@ -30241,10 +30241,10 @@
         <v>0</v>
       </c>
       <c r="N562" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="O562" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P562" t="n">
         <v>0</v>
@@ -30258,11 +30258,11 @@
         <v>57025</v>
       </c>
       <c r="B563" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C563" t="n">
         <v>0.18</v>
       </c>
-      <c r="C563" t="n">
-        <v>0.17</v>
-      </c>
       <c r="D563" t="n">
         <v>0</v>
       </c>
@@ -30294,7 +30294,7 @@
         <v>0</v>
       </c>
       <c r="N563" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="O563" t="n">
         <v>0.13</v>
@@ -30311,10 +30311,10 @@
         <v>57050</v>
       </c>
       <c r="B564" t="n">
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="C564" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="D564" t="n">
         <v>0</v>
@@ -30347,10 +30347,10 @@
         <v>0</v>
       </c>
       <c r="N564" t="n">
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="O564" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="P564" t="n">
         <v>0</v>
@@ -30364,10 +30364,10 @@
         <v>57075</v>
       </c>
       <c r="B565" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="C565" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="D565" t="n">
         <v>0</v>
@@ -30400,10 +30400,10 @@
         <v>0</v>
       </c>
       <c r="N565" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="O565" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="P565" t="n">
         <v>0</v>
@@ -30417,13 +30417,13 @@
         <v>57100</v>
       </c>
       <c r="B566" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="C566" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="D566" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E566" t="n">
         <v>0</v>
@@ -30453,13 +30453,13 @@
         <v>0</v>
       </c>
       <c r="N566" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="O566" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="P566" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Q566" t="n">
         <v>0</v>
@@ -30470,16 +30470,16 @@
         <v>57125</v>
       </c>
       <c r="B567" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="C567" t="n">
         <v>0.16</v>
       </c>
       <c r="D567" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="E567" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F567" t="n">
         <v>0</v>
@@ -30506,16 +30506,16 @@
         <v>0</v>
       </c>
       <c r="N567" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="O567" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="P567" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="Q567" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="568">
@@ -30523,13 +30523,13 @@
         <v>57150</v>
       </c>
       <c r="B568" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="C568" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="D568" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="E568" t="n">
         <v>0</v>
@@ -30559,13 +30559,13 @@
         <v>0</v>
       </c>
       <c r="N568" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="O568" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="P568" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="Q568" t="n">
         <v>0</v>
@@ -30576,13 +30576,13 @@
         <v>57175</v>
       </c>
       <c r="B569" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="C569" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="D569" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="E569" t="n">
         <v>0</v>
@@ -30612,13 +30612,13 @@
         <v>0</v>
       </c>
       <c r="N569" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="O569" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="P569" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q569" t="n">
         <v>0</v>
@@ -30629,14 +30629,14 @@
         <v>57200</v>
       </c>
       <c r="B570" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C570" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D570" t="n">
         <v>0.11</v>
       </c>
-      <c r="C570" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="D570" t="n">
-        <v>0</v>
-      </c>
       <c r="E570" t="n">
         <v>0</v>
       </c>
@@ -30665,13 +30665,13 @@
         <v>0</v>
       </c>
       <c r="N570" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="O570" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="P570" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="Q570" t="n">
         <v>0</v>
@@ -30682,10 +30682,10 @@
         <v>57225</v>
       </c>
       <c r="B571" t="n">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="C571" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="D571" t="n">
         <v>0</v>
@@ -30718,10 +30718,10 @@
         <v>0</v>
       </c>
       <c r="N571" t="n">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="O571" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="P571" t="n">
         <v>0</v>
@@ -30735,10 +30735,10 @@
         <v>57250</v>
       </c>
       <c r="B572" t="n">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="C572" t="n">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="D572" t="n">
         <v>0</v>
@@ -30771,10 +30771,10 @@
         <v>0</v>
       </c>
       <c r="N572" t="n">
-        <v>0.12</v>
+        <v>0.31</v>
       </c>
       <c r="O572" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="P572" t="n">
         <v>0</v>
@@ -30788,10 +30788,10 @@
         <v>57275</v>
       </c>
       <c r="B573" t="n">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="C573" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="D573" t="n">
         <v>0</v>
@@ -30824,7 +30824,7 @@
         <v>0</v>
       </c>
       <c r="N573" t="n">
-        <v>0.13</v>
+        <v>0.3</v>
       </c>
       <c r="O573" t="n">
         <v>0.3</v>
@@ -30841,10 +30841,10 @@
         <v>57300</v>
       </c>
       <c r="B574" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="C574" t="n">
-        <v>0.14</v>
+        <v>0.24</v>
       </c>
       <c r="D574" t="n">
         <v>0</v>
@@ -30877,10 +30877,10 @@
         <v>0</v>
       </c>
       <c r="N574" t="n">
-        <v>0.18</v>
+        <v>0.32</v>
       </c>
       <c r="O574" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="P574" t="n">
         <v>0</v>
@@ -30894,10 +30894,10 @@
         <v>57325</v>
       </c>
       <c r="B575" t="n">
-        <v>0.12</v>
+        <v>0.28</v>
       </c>
       <c r="C575" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="D575" t="n">
         <v>0</v>
@@ -30930,10 +30930,10 @@
         <v>0</v>
       </c>
       <c r="N575" t="n">
-        <v>0.12</v>
+        <v>0.28</v>
       </c>
       <c r="O575" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="P575" t="n">
         <v>0</v>
@@ -30947,10 +30947,10 @@
         <v>57350</v>
       </c>
       <c r="B576" t="n">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="C576" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="D576" t="n">
         <v>0</v>
@@ -30983,10 +30983,10 @@
         <v>0</v>
       </c>
       <c r="N576" t="n">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="O576" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="P576" t="n">
         <v>0</v>
@@ -31000,7 +31000,7 @@
         <v>57375</v>
       </c>
       <c r="B577" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="C577" t="n">
         <v>0.15</v>
@@ -31036,10 +31036,10 @@
         <v>0</v>
       </c>
       <c r="N577" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="O577" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="P577" t="n">
         <v>0</v>
@@ -31053,10 +31053,10 @@
         <v>57400</v>
       </c>
       <c r="B578" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="C578" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="D578" t="n">
         <v>0</v>
@@ -31089,10 +31089,10 @@
         <v>0</v>
       </c>
       <c r="N578" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="O578" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="P578" t="n">
         <v>0</v>
@@ -31106,10 +31106,10 @@
         <v>57425</v>
       </c>
       <c r="B579" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="C579" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="D579" t="n">
         <v>0</v>
@@ -31142,10 +31142,10 @@
         <v>0</v>
       </c>
       <c r="N579" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="O579" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="P579" t="n">
         <v>0</v>
@@ -32537,10 +32537,10 @@
         <v>58100</v>
       </c>
       <c r="B606" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="C606" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="D606" t="n">
         <v>0</v>
@@ -32573,10 +32573,10 @@
         <v>0</v>
       </c>
       <c r="N606" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O606" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P606" t="n">
         <v>0</v>
@@ -33438,10 +33438,10 @@
         <v>58525</v>
       </c>
       <c r="B623" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="C623" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D623" t="n">
         <v>0</v>
@@ -33474,10 +33474,10 @@
         <v>0</v>
       </c>
       <c r="N623" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="O623" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P623" t="n">
         <v>0</v>
@@ -34127,10 +34127,10 @@
         <v>58850</v>
       </c>
       <c r="B636" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C636" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D636" t="n">
         <v>0</v>
@@ -34163,10 +34163,10 @@
         <v>0</v>
       </c>
       <c r="N636" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O636" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P636" t="n">
         <v>0</v>
@@ -34180,10 +34180,10 @@
         <v>58875</v>
       </c>
       <c r="B637" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C637" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D637" t="n">
         <v>0</v>
@@ -34216,10 +34216,10 @@
         <v>0</v>
       </c>
       <c r="N637" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O637" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P637" t="n">
         <v>0</v>
@@ -34233,10 +34233,10 @@
         <v>58900</v>
       </c>
       <c r="B638" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C638" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D638" t="n">
         <v>0</v>
@@ -34269,10 +34269,10 @@
         <v>0</v>
       </c>
       <c r="N638" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O638" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P638" t="n">
         <v>0</v>
@@ -34286,10 +34286,10 @@
         <v>58925</v>
       </c>
       <c r="B639" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C639" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D639" t="n">
         <v>0</v>
@@ -34322,10 +34322,10 @@
         <v>0</v>
       </c>
       <c r="N639" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O639" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P639" t="n">
         <v>0</v>
@@ -34339,10 +34339,10 @@
         <v>58950</v>
       </c>
       <c r="B640" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C640" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D640" t="n">
         <v>0</v>
@@ -34375,10 +34375,10 @@
         <v>0</v>
       </c>
       <c r="N640" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O640" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P640" t="n">
         <v>0</v>
@@ -34392,10 +34392,10 @@
         <v>58975</v>
       </c>
       <c r="B641" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C641" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D641" t="n">
         <v>0</v>
@@ -34428,10 +34428,10 @@
         <v>0</v>
       </c>
       <c r="N641" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O641" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P641" t="n">
         <v>0</v>
@@ -34445,10 +34445,10 @@
         <v>59000</v>
       </c>
       <c r="B642" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C642" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D642" t="n">
         <v>0</v>
@@ -34481,10 +34481,10 @@
         <v>0</v>
       </c>
       <c r="N642" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O642" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P642" t="n">
         <v>0</v>
@@ -34498,10 +34498,10 @@
         <v>59025</v>
       </c>
       <c r="B643" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C643" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D643" t="n">
         <v>0</v>
@@ -34534,10 +34534,10 @@
         <v>0</v>
       </c>
       <c r="N643" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O643" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P643" t="n">
         <v>0</v>
@@ -34551,10 +34551,10 @@
         <v>59040.889</v>
       </c>
       <c r="B644" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C644" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D644" t="n">
         <v>0</v>
@@ -34587,10 +34587,10 @@
         <v>0</v>
       </c>
       <c r="N644" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="O644" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P644" t="n">
         <v>0</v>

--- a/output/layerSolutions_left.xlsx
+++ b/output/layerSolutions_left.xlsx
@@ -578,10 +578,10 @@
         <v>43025</v>
       </c>
       <c r="B3" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="C3" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -614,10 +614,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="O3" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>43050</v>
       </c>
       <c r="B4" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="C4" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="O4" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -684,10 +684,10 @@
         <v>43075</v>
       </c>
       <c r="B5" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="C5" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -720,10 +720,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="O5" t="n">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         <v>43100</v>
       </c>
       <c r="B6" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -773,10 +773,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -790,10 +790,10 @@
         <v>43125</v>
       </c>
       <c r="B7" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>43175</v>
       </c>
       <c r="B9" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="C9" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -932,10 +932,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="O9" t="n">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>43200</v>
       </c>
       <c r="B10" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="C10" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="O10" t="n">
-        <v>0.12</v>
+        <v>0.26</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1002,46 +1002,46 @@
         <v>43225</v>
       </c>
       <c r="B11" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="C11" t="n">
         <v>0.13</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>0.12</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.13</v>
-      </c>
       <c r="O11" t="n">
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1055,10 +1055,10 @@
         <v>43250</v>
       </c>
       <c r="B12" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1091,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="O12" t="n">
-        <v>0.12</v>
+        <v>0.29</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>43275</v>
       </c>
       <c r="B13" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="C13" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="O13" t="n">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>43300</v>
       </c>
       <c r="B14" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="C14" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="O14" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1214,10 +1214,10 @@
         <v>43325</v>
       </c>
       <c r="B15" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1373,10 +1373,10 @@
         <v>43400</v>
       </c>
       <c r="B18" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="C18" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="O18" t="n">
         <v>0.12</v>
@@ -1479,10 +1479,10 @@
         <v>43450</v>
       </c>
       <c r="B20" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1515,10 +1515,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>43475</v>
       </c>
       <c r="B21" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1568,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -8870,10 +8870,10 @@
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="K159" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L159" t="n">
         <v>0</v>
@@ -8882,10 +8882,10 @@
         <v>0</v>
       </c>
       <c r="N159" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="O159" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P159" t="n">
         <v>0</v>
@@ -9029,10 +9029,10 @@
         <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="K162" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="L162" t="n">
         <v>0</v>
@@ -9041,10 +9041,10 @@
         <v>0</v>
       </c>
       <c r="N162" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="O162" t="n">
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
       <c r="P162" t="n">
         <v>0</v>
@@ -9082,10 +9082,10 @@
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="K163" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="L163" t="n">
         <v>0</v>
@@ -9094,10 +9094,10 @@
         <v>0</v>
       </c>
       <c r="N163" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="O163" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P163" t="n">
         <v>0</v>
@@ -9135,10 +9135,10 @@
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="K164" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="L164" t="n">
         <v>0</v>
@@ -9147,10 +9147,10 @@
         <v>0</v>
       </c>
       <c r="N164" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="O164" t="n">
-        <v>0.12</v>
+        <v>0.29</v>
       </c>
       <c r="P164" t="n">
         <v>0</v>
@@ -9188,10 +9188,10 @@
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="K165" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="L165" t="n">
         <v>0</v>
@@ -9200,10 +9200,10 @@
         <v>0</v>
       </c>
       <c r="N165" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="O165" t="n">
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
       <c r="P165" t="n">
         <v>0</v>
@@ -9241,22 +9241,22 @@
         <v>0</v>
       </c>
       <c r="J166" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.13</v>
       </c>
-      <c r="K166" t="n">
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N166" t="n">
         <v>0.12</v>
       </c>
-      <c r="L166" t="n">
-        <v>0</v>
-      </c>
-      <c r="M166" t="n">
-        <v>0</v>
-      </c>
-      <c r="N166" t="n">
-        <v>0.13</v>
-      </c>
       <c r="O166" t="n">
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
       <c r="P166" t="n">
         <v>0</v>
@@ -9294,10 +9294,10 @@
         <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="K167" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="L167" t="n">
         <v>0</v>
@@ -9306,10 +9306,10 @@
         <v>0</v>
       </c>
       <c r="N167" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="O167" t="n">
-        <v>0.12</v>
+        <v>0.26</v>
       </c>
       <c r="P167" t="n">
         <v>0</v>
@@ -9432,7 +9432,7 @@
         <v>0.14</v>
       </c>
       <c r="C170" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
@@ -9506,10 +9506,10 @@
         <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="K171" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L171" t="n">
         <v>0</v>
@@ -9518,10 +9518,10 @@
         <v>0</v>
       </c>
       <c r="N171" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="O171" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P171" t="n">
         <v>0</v>
@@ -9559,10 +9559,10 @@
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="K172" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L172" t="n">
         <v>0</v>
@@ -9571,10 +9571,10 @@
         <v>0</v>
       </c>
       <c r="N172" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="O172" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P172" t="n">
         <v>0</v>
@@ -9612,10 +9612,10 @@
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="K173" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L173" t="n">
         <v>0</v>
@@ -9624,10 +9624,10 @@
         <v>0</v>
       </c>
       <c r="N173" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="O173" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P173" t="n">
         <v>0</v>
@@ -9718,22 +9718,22 @@
         <v>0</v>
       </c>
       <c r="J175" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="O175" t="n">
         <v>0.13</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="L175" t="n">
-        <v>0</v>
-      </c>
-      <c r="M175" t="n">
-        <v>0</v>
-      </c>
-      <c r="N175" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O175" t="n">
-        <v>0.12</v>
       </c>
       <c r="P175" t="n">
         <v>0</v>
@@ -10171,10 +10171,10 @@
         <v>47550</v>
       </c>
       <c r="B184" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="C184" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="D184" t="n">
         <v>0</v>
@@ -10207,10 +10207,10 @@
         <v>0</v>
       </c>
       <c r="N184" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="O184" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="P184" t="n">
         <v>0</v>
@@ -10224,10 +10224,10 @@
         <v>47575</v>
       </c>
       <c r="B185" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="C185" t="n">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="D185" t="n">
         <v>0</v>
@@ -10260,10 +10260,10 @@
         <v>0</v>
       </c>
       <c r="N185" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="O185" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="P185" t="n">
         <v>0</v>
@@ -12103,10 +12103,10 @@
         <v>0</v>
       </c>
       <c r="J220" t="n">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="K220" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="L220" t="n">
         <v>0</v>
@@ -12115,10 +12115,10 @@
         <v>0</v>
       </c>
       <c r="N220" t="n">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
       <c r="O220" t="n">
-        <v>0.24</v>
+        <v>0.34</v>
       </c>
       <c r="P220" t="n">
         <v>0</v>
@@ -12156,10 +12156,10 @@
         <v>0</v>
       </c>
       <c r="J221" t="n">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="K221" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="L221" t="n">
         <v>0</v>
@@ -12168,10 +12168,10 @@
         <v>0</v>
       </c>
       <c r="N221" t="n">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
       <c r="O221" t="n">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
       <c r="P221" t="n">
         <v>0</v>
@@ -12209,10 +12209,10 @@
         <v>0</v>
       </c>
       <c r="J222" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="K222" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="L222" t="n">
         <v>0</v>
@@ -12221,10 +12221,10 @@
         <v>0</v>
       </c>
       <c r="N222" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="O222" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="P222" t="n">
         <v>0</v>
@@ -12315,10 +12315,10 @@
         <v>0</v>
       </c>
       <c r="J224" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="L224" t="n">
         <v>0</v>
@@ -12327,10 +12327,10 @@
         <v>0</v>
       </c>
       <c r="N224" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="O224" t="n">
-        <v>0.3</v>
+        <v>0.18</v>
       </c>
       <c r="P224" t="n">
         <v>0</v>
@@ -12368,10 +12368,10 @@
         <v>0</v>
       </c>
       <c r="J225" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="K225" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="L225" t="n">
         <v>0</v>
@@ -12380,10 +12380,10 @@
         <v>0</v>
       </c>
       <c r="N225" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="O225" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P225" t="n">
         <v>0</v>
@@ -12421,10 +12421,10 @@
         <v>0</v>
       </c>
       <c r="J226" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="K226" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="L226" t="n">
         <v>0</v>
@@ -12433,10 +12433,10 @@
         <v>0</v>
       </c>
       <c r="N226" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="O226" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="P226" t="n">
         <v>0</v>
@@ -12474,25 +12474,25 @@
         <v>0</v>
       </c>
       <c r="J227" t="n">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="K227" t="n">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="L227" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="M227" t="n">
         <v>0</v>
       </c>
       <c r="N227" t="n">
-        <v>0.34</v>
+        <v>0.21</v>
       </c>
       <c r="O227" t="n">
-        <v>0.34</v>
+        <v>0.21</v>
       </c>
       <c r="P227" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q227" t="n">
         <v>0</v>
@@ -12592,10 +12592,10 @@
         <v>0</v>
       </c>
       <c r="N229" t="n">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="O229" t="n">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="P229" t="n">
         <v>0</v>
@@ -12633,10 +12633,10 @@
         <v>0</v>
       </c>
       <c r="J230" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="K230" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="L230" t="n">
         <v>0</v>
@@ -12645,10 +12645,10 @@
         <v>0</v>
       </c>
       <c r="N230" t="n">
-        <v>0.18</v>
+        <v>0.31</v>
       </c>
       <c r="O230" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="P230" t="n">
         <v>0</v>
@@ -12686,10 +12686,10 @@
         <v>0</v>
       </c>
       <c r="J231" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="K231" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="L231" t="n">
         <v>0</v>
@@ -12698,10 +12698,10 @@
         <v>0</v>
       </c>
       <c r="N231" t="n">
-        <v>0.14</v>
+        <v>0.32</v>
       </c>
       <c r="O231" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="P231" t="n">
         <v>0</v>
@@ -12739,10 +12739,10 @@
         <v>0</v>
       </c>
       <c r="J232" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="K232" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="L232" t="n">
         <v>0</v>
@@ -12751,10 +12751,10 @@
         <v>0</v>
       </c>
       <c r="N232" t="n">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="O232" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="P232" t="n">
         <v>0</v>
@@ -12804,10 +12804,10 @@
         <v>0</v>
       </c>
       <c r="N233" t="n">
-        <v>0.24</v>
+        <v>0.34</v>
       </c>
       <c r="O233" t="n">
-        <v>0.24</v>
+        <v>0.34</v>
       </c>
       <c r="P233" t="n">
         <v>0</v>
@@ -12845,10 +12845,10 @@
         <v>0</v>
       </c>
       <c r="J234" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="K234" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="L234" t="n">
         <v>0</v>
@@ -12857,10 +12857,10 @@
         <v>0</v>
       </c>
       <c r="N234" t="n">
-        <v>0.14</v>
+        <v>0.32</v>
       </c>
       <c r="O234" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="P234" t="n">
         <v>0</v>
@@ -12898,10 +12898,10 @@
         <v>0</v>
       </c>
       <c r="J235" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="K235" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="L235" t="n">
         <v>0</v>
@@ -12910,10 +12910,10 @@
         <v>0</v>
       </c>
       <c r="N235" t="n">
-        <v>0.11</v>
+        <v>0.27</v>
       </c>
       <c r="O235" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="P235" t="n">
         <v>0</v>
@@ -13428,10 +13428,10 @@
         <v>0</v>
       </c>
       <c r="J245" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="K245" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="L245" t="n">
         <v>0</v>
@@ -13440,10 +13440,10 @@
         <v>0</v>
       </c>
       <c r="N245" t="n">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="O245" t="n">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="P245" t="n">
         <v>0</v>
@@ -13481,10 +13481,10 @@
         <v>0</v>
       </c>
       <c r="J246" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="K246" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="L246" t="n">
         <v>0</v>
@@ -13493,10 +13493,10 @@
         <v>0</v>
       </c>
       <c r="N246" t="n">
-        <v>0.23</v>
+        <v>0.36</v>
       </c>
       <c r="O246" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="P246" t="n">
         <v>0</v>
@@ -13546,10 +13546,10 @@
         <v>0</v>
       </c>
       <c r="N247" t="n">
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
       <c r="O247" t="n">
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
       <c r="P247" t="n">
         <v>0</v>
@@ -13587,10 +13587,10 @@
         <v>0</v>
       </c>
       <c r="J248" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="K248" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="L248" t="n">
         <v>0</v>
@@ -13599,10 +13599,10 @@
         <v>0</v>
       </c>
       <c r="N248" t="n">
-        <v>0.19</v>
+        <v>0.34</v>
       </c>
       <c r="O248" t="n">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="P248" t="n">
         <v>0</v>
@@ -13852,10 +13852,10 @@
         <v>0</v>
       </c>
       <c r="J253" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
       <c r="K253" t="n">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="L253" t="n">
         <v>0</v>
@@ -13864,10 +13864,10 @@
         <v>0</v>
       </c>
       <c r="N253" t="n">
-        <v>0.29</v>
+        <v>0.36</v>
       </c>
       <c r="O253" t="n">
-        <v>0.29</v>
+        <v>0.36</v>
       </c>
       <c r="P253" t="n">
         <v>0</v>
@@ -13958,25 +13958,25 @@
         <v>0</v>
       </c>
       <c r="J255" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="K255" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="L255" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="M255" t="n">
         <v>0</v>
       </c>
       <c r="N255" t="n">
-        <v>0.15</v>
+        <v>0.32</v>
       </c>
       <c r="O255" t="n">
-        <v>0.15</v>
+        <v>0.32</v>
       </c>
       <c r="P255" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="Q255" t="n">
         <v>0</v>
@@ -14011,10 +14011,10 @@
         <v>0</v>
       </c>
       <c r="J256" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="K256" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="L256" t="n">
         <v>0</v>
@@ -14023,10 +14023,10 @@
         <v>0</v>
       </c>
       <c r="N256" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="O256" t="n">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="P256" t="n">
         <v>0</v>
@@ -14079,7 +14079,7 @@
         <v>0.15</v>
       </c>
       <c r="O257" t="n">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="P257" t="n">
         <v>0</v>
@@ -14117,10 +14117,10 @@
         <v>0</v>
       </c>
       <c r="J258" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="K258" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="L258" t="n">
         <v>0</v>
@@ -14129,10 +14129,10 @@
         <v>0</v>
       </c>
       <c r="N258" t="n">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="O258" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="P258" t="n">
         <v>0</v>
@@ -14170,10 +14170,10 @@
         <v>0</v>
       </c>
       <c r="J259" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="K259" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="L259" t="n">
         <v>0</v>
@@ -14182,10 +14182,10 @@
         <v>0</v>
       </c>
       <c r="N259" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
       <c r="O259" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="P259" t="n">
         <v>0</v>
@@ -14223,10 +14223,10 @@
         <v>0</v>
       </c>
       <c r="J260" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="K260" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="L260" t="n">
         <v>0</v>
@@ -14235,10 +14235,10 @@
         <v>0</v>
       </c>
       <c r="N260" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="O260" t="n">
-        <v>0.13</v>
+        <v>0.3</v>
       </c>
       <c r="P260" t="n">
         <v>0</v>
@@ -14276,10 +14276,10 @@
         <v>0</v>
       </c>
       <c r="J261" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="K261" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="L261" t="n">
         <v>0</v>
@@ -14288,10 +14288,10 @@
         <v>0</v>
       </c>
       <c r="N261" t="n">
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="O261" t="n">
-        <v>0.14</v>
+        <v>0.26</v>
       </c>
       <c r="P261" t="n">
         <v>0</v>
@@ -14332,7 +14332,7 @@
         <v>0.18</v>
       </c>
       <c r="K262" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="L262" t="n">
         <v>0</v>
@@ -14341,10 +14341,10 @@
         <v>0</v>
       </c>
       <c r="N262" t="n">
-        <v>0.18</v>
+        <v>0.28</v>
       </c>
       <c r="O262" t="n">
-        <v>0.11</v>
+        <v>0.28</v>
       </c>
       <c r="P262" t="n">
         <v>0</v>
@@ -14394,10 +14394,10 @@
         <v>0</v>
       </c>
       <c r="N263" t="n">
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="O263" t="n">
-        <v>0.15</v>
+        <v>0.32</v>
       </c>
       <c r="P263" t="n">
         <v>0</v>
@@ -14435,25 +14435,25 @@
         <v>0</v>
       </c>
       <c r="J264" t="n">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="K264" t="n">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="L264" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="M264" t="n">
         <v>0</v>
       </c>
       <c r="N264" t="n">
-        <v>0.17</v>
+        <v>0.37</v>
       </c>
       <c r="O264" t="n">
-        <v>0.17</v>
+        <v>0.37</v>
       </c>
       <c r="P264" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="Q264" t="n">
         <v>0</v>
@@ -14488,25 +14488,25 @@
         <v>0</v>
       </c>
       <c r="J265" t="n">
-        <v>0.19</v>
+        <v>0.28</v>
       </c>
       <c r="K265" t="n">
-        <v>0.19</v>
+        <v>0.28</v>
       </c>
       <c r="L265" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="M265" t="n">
         <v>0</v>
       </c>
       <c r="N265" t="n">
-        <v>0.19</v>
+        <v>0.4</v>
       </c>
       <c r="O265" t="n">
-        <v>0.19</v>
+        <v>0.4</v>
       </c>
       <c r="P265" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="Q265" t="n">
         <v>0</v>
@@ -14541,25 +14541,25 @@
         <v>0</v>
       </c>
       <c r="J266" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="K266" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="L266" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="M266" t="n">
         <v>0</v>
       </c>
       <c r="N266" t="n">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="O266" t="n">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="P266" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="Q266" t="n">
         <v>0</v>
@@ -14594,10 +14594,10 @@
         <v>0</v>
       </c>
       <c r="J267" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="K267" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="L267" t="n">
         <v>0</v>
@@ -14606,10 +14606,10 @@
         <v>0</v>
       </c>
       <c r="N267" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O267" t="n">
-        <v>0.14</v>
+        <v>0.3</v>
       </c>
       <c r="P267" t="n">
         <v>0</v>
@@ -14647,10 +14647,10 @@
         <v>0</v>
       </c>
       <c r="J268" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="K268" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="L268" t="n">
         <v>0</v>
@@ -14659,10 +14659,10 @@
         <v>0</v>
       </c>
       <c r="N268" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="O268" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="P268" t="n">
         <v>0</v>
@@ -14712,10 +14712,10 @@
         <v>0</v>
       </c>
       <c r="N269" t="n">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="O269" t="n">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
       <c r="P269" t="n">
         <v>0</v>
@@ -14753,25 +14753,25 @@
         <v>0</v>
       </c>
       <c r="J270" t="n">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="K270" t="n">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="L270" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="M270" t="n">
         <v>0</v>
       </c>
       <c r="N270" t="n">
-        <v>0.17</v>
+        <v>0.32</v>
       </c>
       <c r="O270" t="n">
-        <v>0.17</v>
+        <v>0.32</v>
       </c>
       <c r="P270" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="Q270" t="n">
         <v>0</v>
@@ -14818,10 +14818,10 @@
         <v>0</v>
       </c>
       <c r="N271" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="O271" t="n">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
       <c r="P271" t="n">
         <v>0</v>
@@ -14859,10 +14859,10 @@
         <v>0</v>
       </c>
       <c r="J272" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="K272" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="L272" t="n">
         <v>0</v>
@@ -14871,10 +14871,10 @@
         <v>0</v>
       </c>
       <c r="N272" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="O272" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="P272" t="n">
         <v>0</v>
@@ -14912,10 +14912,10 @@
         <v>0</v>
       </c>
       <c r="J273" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="K273" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="L273" t="n">
         <v>0</v>
@@ -14924,10 +14924,10 @@
         <v>0</v>
       </c>
       <c r="N273" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="O273" t="n">
-        <v>0.11</v>
+        <v>0.24</v>
       </c>
       <c r="P273" t="n">
         <v>0</v>
@@ -20771,13 +20771,13 @@
         <v>52550</v>
       </c>
       <c r="B384" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="C384" t="n">
         <v>0.12</v>
       </c>
       <c r="D384" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E384" t="n">
         <v>0</v>
@@ -20807,13 +20807,13 @@
         <v>0</v>
       </c>
       <c r="N384" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="O384" t="n">
         <v>0.12</v>
       </c>
       <c r="P384" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="Q384" t="n">
         <v>0</v>
@@ -20824,13 +20824,13 @@
         <v>52575</v>
       </c>
       <c r="B385" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="C385" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="D385" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E385" t="n">
         <v>0</v>
@@ -20860,13 +20860,13 @@
         <v>0</v>
       </c>
       <c r="N385" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="O385" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="P385" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="Q385" t="n">
         <v>0</v>
@@ -24852,46 +24852,46 @@
         <v>54475</v>
       </c>
       <c r="B461" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="C461" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D461" t="n">
+        <v>0</v>
+      </c>
+      <c r="E461" t="n">
+        <v>0</v>
+      </c>
+      <c r="F461" t="n">
+        <v>0</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0</v>
+      </c>
+      <c r="H461" t="n">
+        <v>0</v>
+      </c>
+      <c r="I461" t="n">
+        <v>0</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0</v>
+      </c>
+      <c r="L461" t="n">
+        <v>0</v>
+      </c>
+      <c r="M461" t="n">
+        <v>0</v>
+      </c>
+      <c r="N461" t="n">
         <v>0.21</v>
       </c>
-      <c r="D461" t="n">
-        <v>0</v>
-      </c>
-      <c r="E461" t="n">
-        <v>0</v>
-      </c>
-      <c r="F461" t="n">
-        <v>0</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0</v>
-      </c>
-      <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="n">
-        <v>0</v>
-      </c>
-      <c r="J461" t="n">
-        <v>0</v>
-      </c>
-      <c r="K461" t="n">
-        <v>0</v>
-      </c>
-      <c r="L461" t="n">
-        <v>0</v>
-      </c>
-      <c r="M461" t="n">
-        <v>0</v>
-      </c>
-      <c r="N461" t="n">
-        <v>0.11</v>
-      </c>
       <c r="O461" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="P461" t="n">
         <v>0</v>
@@ -24905,10 +24905,10 @@
         <v>54500</v>
       </c>
       <c r="B462" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="C462" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="D462" t="n">
         <v>0</v>
@@ -24941,10 +24941,10 @@
         <v>0</v>
       </c>
       <c r="N462" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="O462" t="n">
-        <v>0.13</v>
+        <v>0.3</v>
       </c>
       <c r="P462" t="n">
         <v>0</v>
@@ -24958,10 +24958,10 @@
         <v>54525</v>
       </c>
       <c r="B463" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="C463" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="D463" t="n">
         <v>0</v>
@@ -24994,10 +24994,10 @@
         <v>0</v>
       </c>
       <c r="N463" t="n">
-        <v>0.19</v>
+        <v>0.28</v>
       </c>
       <c r="O463" t="n">
-        <v>0.18</v>
+        <v>0.28</v>
       </c>
       <c r="P463" t="n">
         <v>0</v>
@@ -25011,10 +25011,10 @@
         <v>54550</v>
       </c>
       <c r="B464" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C464" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="D464" t="n">
         <v>0</v>
@@ -25047,10 +25047,10 @@
         <v>0</v>
       </c>
       <c r="N464" t="n">
-        <v>0.11</v>
+        <v>0.27</v>
       </c>
       <c r="O464" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="P464" t="n">
         <v>0</v>
@@ -25064,10 +25064,10 @@
         <v>54575</v>
       </c>
       <c r="B465" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C465" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="D465" t="n">
         <v>0</v>
@@ -25100,10 +25100,10 @@
         <v>0</v>
       </c>
       <c r="N465" t="n">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="O465" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="P465" t="n">
         <v>0</v>
@@ -25141,10 +25141,10 @@
         <v>0</v>
       </c>
       <c r="J466" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="K466" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="L466" t="n">
         <v>0</v>
@@ -25153,10 +25153,10 @@
         <v>0</v>
       </c>
       <c r="N466" t="n">
-        <v>0.11</v>
+        <v>0.28</v>
       </c>
       <c r="O466" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="P466" t="n">
         <v>0</v>
@@ -25194,10 +25194,10 @@
         <v>0</v>
       </c>
       <c r="J467" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="K467" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="L467" t="n">
         <v>0</v>
@@ -25206,10 +25206,10 @@
         <v>0</v>
       </c>
       <c r="N467" t="n">
-        <v>0.13</v>
+        <v>0.31</v>
       </c>
       <c r="O467" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="P467" t="n">
         <v>0</v>
@@ -25247,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="J468" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="K468" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="L468" t="n">
         <v>0</v>
@@ -25259,7 +25259,7 @@
         <v>0</v>
       </c>
       <c r="N468" t="n">
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
       <c r="O468" t="n">
         <v>0.3</v>
@@ -25300,10 +25300,10 @@
         <v>0</v>
       </c>
       <c r="J469" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="K469" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="L469" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="N469" t="n">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="O469" t="n">
         <v>0.3</v>
@@ -25353,10 +25353,10 @@
         <v>0</v>
       </c>
       <c r="J470" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="K470" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="L470" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="N470" t="n">
-        <v>0.11</v>
+        <v>0.28</v>
       </c>
       <c r="O470" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="P470" t="n">
         <v>0</v>
@@ -25406,10 +25406,10 @@
         <v>0</v>
       </c>
       <c r="J471" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="K471" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="L471" t="n">
         <v>0</v>
@@ -25418,10 +25418,10 @@
         <v>0</v>
       </c>
       <c r="N471" t="n">
-        <v>0.14</v>
+        <v>0.32</v>
       </c>
       <c r="O471" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="P471" t="n">
         <v>0</v>
@@ -25459,10 +25459,10 @@
         <v>0</v>
       </c>
       <c r="J472" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="K472" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="L472" t="n">
         <v>0</v>
@@ -25471,7 +25471,7 @@
         <v>0</v>
       </c>
       <c r="N472" t="n">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="O472" t="n">
         <v>0.3</v>
@@ -25512,7 +25512,7 @@
         <v>0</v>
       </c>
       <c r="J473" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="K473" t="n">
         <v>0.16</v>
@@ -25524,10 +25524,10 @@
         <v>0</v>
       </c>
       <c r="N473" t="n">
-        <v>0.15</v>
+        <v>0.32</v>
       </c>
       <c r="O473" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="P473" t="n">
         <v>0</v>
@@ -25565,10 +25565,10 @@
         <v>0</v>
       </c>
       <c r="J474" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="K474" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="L474" t="n">
         <v>0</v>
@@ -25577,10 +25577,10 @@
         <v>0</v>
       </c>
       <c r="N474" t="n">
-        <v>0.15</v>
+        <v>0.31</v>
       </c>
       <c r="O474" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="P474" t="n">
         <v>0</v>
@@ -25618,10 +25618,10 @@
         <v>0</v>
       </c>
       <c r="J475" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="K475" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="L475" t="n">
         <v>0</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="N475" t="n">
-        <v>0.11</v>
+        <v>0.28</v>
       </c>
       <c r="O475" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="P475" t="n">
         <v>0</v>
@@ -25671,10 +25671,10 @@
         <v>0</v>
       </c>
       <c r="J476" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="K476" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="L476" t="n">
         <v>0</v>
@@ -25683,10 +25683,10 @@
         <v>0</v>
       </c>
       <c r="N476" t="n">
-        <v>0.12</v>
+        <v>0.28</v>
       </c>
       <c r="O476" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="P476" t="n">
         <v>0</v>
@@ -25727,7 +25727,7 @@
         <v>0.14</v>
       </c>
       <c r="K477" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="L477" t="n">
         <v>0</v>
@@ -25736,10 +25736,10 @@
         <v>0</v>
       </c>
       <c r="N477" t="n">
-        <v>0.14</v>
+        <v>0.29</v>
       </c>
       <c r="O477" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="P477" t="n">
         <v>0</v>
@@ -25777,10 +25777,10 @@
         <v>0</v>
       </c>
       <c r="J478" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="K478" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="L478" t="n">
         <v>0</v>
@@ -25789,10 +25789,10 @@
         <v>0</v>
       </c>
       <c r="N478" t="n">
-        <v>0.11</v>
+        <v>0.27</v>
       </c>
       <c r="O478" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="P478" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0.12</v>
       </c>
       <c r="K479" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="L479" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="N479" t="n">
-        <v>0.12</v>
+        <v>0.28</v>
       </c>
       <c r="O479" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="P479" t="n">
         <v>0</v>
@@ -25895,10 +25895,10 @@
         <v>0</v>
       </c>
       <c r="N480" t="n">
-        <v>0.15</v>
+        <v>0.29</v>
       </c>
       <c r="O480" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="P480" t="n">
         <v>0</v>
@@ -25936,10 +25936,10 @@
         <v>0</v>
       </c>
       <c r="J481" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="K481" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="L481" t="n">
         <v>0</v>
@@ -25948,10 +25948,10 @@
         <v>0</v>
       </c>
       <c r="N481" t="n">
-        <v>0.12</v>
+        <v>0.28</v>
       </c>
       <c r="O481" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="P481" t="n">
         <v>0</v>
@@ -25992,7 +25992,7 @@
         <v>0.14</v>
       </c>
       <c r="K482" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="L482" t="n">
         <v>0</v>
@@ -26001,10 +26001,10 @@
         <v>0</v>
       </c>
       <c r="N482" t="n">
-        <v>0.14</v>
+        <v>0.28</v>
       </c>
       <c r="O482" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="P482" t="n">
         <v>0</v>
@@ -26042,10 +26042,10 @@
         <v>0</v>
       </c>
       <c r="J483" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="K483" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="L483" t="n">
         <v>0</v>
@@ -26054,7 +26054,7 @@
         <v>0</v>
       </c>
       <c r="N483" t="n">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="O483" t="n">
         <v>0.3</v>
@@ -26095,10 +26095,10 @@
         <v>0</v>
       </c>
       <c r="J484" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="K484" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="L484" t="n">
         <v>0</v>
@@ -26107,10 +26107,10 @@
         <v>0</v>
       </c>
       <c r="N484" t="n">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
       <c r="O484" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="P484" t="n">
         <v>0</v>
@@ -26148,10 +26148,10 @@
         <v>0</v>
       </c>
       <c r="J485" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="K485" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="L485" t="n">
         <v>0</v>
@@ -26160,10 +26160,10 @@
         <v>0</v>
       </c>
       <c r="N485" t="n">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
       <c r="O485" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="P485" t="n">
         <v>0</v>
@@ -26201,10 +26201,10 @@
         <v>0</v>
       </c>
       <c r="J486" t="n">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="K486" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="L486" t="n">
         <v>0</v>
@@ -26213,10 +26213,10 @@
         <v>0</v>
       </c>
       <c r="N486" t="n">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="O486" t="n">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="P486" t="n">
         <v>0</v>
@@ -26254,10 +26254,10 @@
         <v>0</v>
       </c>
       <c r="J487" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="K487" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="L487" t="n">
         <v>0</v>
@@ -26266,10 +26266,10 @@
         <v>0</v>
       </c>
       <c r="N487" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="O487" t="n">
-        <v>0.21</v>
+        <v>0.29</v>
       </c>
       <c r="P487" t="n">
         <v>0</v>
@@ -26307,10 +26307,10 @@
         <v>0</v>
       </c>
       <c r="J488" t="n">
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="K488" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="L488" t="n">
         <v>0</v>
@@ -26319,10 +26319,10 @@
         <v>0</v>
       </c>
       <c r="N488" t="n">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
       <c r="O488" t="n">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
       <c r="P488" t="n">
         <v>0</v>
@@ -26360,25 +26360,25 @@
         <v>0</v>
       </c>
       <c r="J489" t="n">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="K489" t="n">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="L489" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="M489" t="n">
         <v>0</v>
       </c>
       <c r="N489" t="n">
-        <v>0.19</v>
+        <v>0.35</v>
       </c>
       <c r="O489" t="n">
-        <v>0.19</v>
+        <v>0.35</v>
       </c>
       <c r="P489" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="Q489" t="n">
         <v>0</v>
@@ -26413,25 +26413,25 @@
         <v>0</v>
       </c>
       <c r="J490" t="n">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="K490" t="n">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="L490" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="M490" t="n">
         <v>0</v>
       </c>
       <c r="N490" t="n">
-        <v>0.17</v>
+        <v>0.34</v>
       </c>
       <c r="O490" t="n">
-        <v>0.17</v>
+        <v>0.34</v>
       </c>
       <c r="P490" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Q490" t="n">
         <v>0</v>
@@ -26466,10 +26466,10 @@
         <v>0</v>
       </c>
       <c r="J491" t="n">
-        <v>0.11</v>
+        <v>0.24</v>
       </c>
       <c r="K491" t="n">
-        <v>0.28</v>
+        <v>0.15</v>
       </c>
       <c r="L491" t="n">
         <v>0</v>
@@ -26478,10 +26478,10 @@
         <v>0</v>
       </c>
       <c r="N491" t="n">
-        <v>0.11</v>
+        <v>0.24</v>
       </c>
       <c r="O491" t="n">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="P491" t="n">
         <v>0</v>
@@ -26519,10 +26519,10 @@
         <v>0</v>
       </c>
       <c r="J492" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="K492" t="n">
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
       <c r="L492" t="n">
         <v>0</v>
@@ -26531,10 +26531,10 @@
         <v>0</v>
       </c>
       <c r="N492" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="O492" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="P492" t="n">
         <v>0</v>
@@ -26572,10 +26572,10 @@
         <v>0</v>
       </c>
       <c r="J493" t="n">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="K493" t="n">
-        <v>0.28</v>
+        <v>0.14</v>
       </c>
       <c r="L493" t="n">
         <v>0</v>
@@ -26584,10 +26584,10 @@
         <v>0</v>
       </c>
       <c r="N493" t="n">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="O493" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="P493" t="n">
         <v>0</v>
@@ -26625,10 +26625,10 @@
         <v>0</v>
       </c>
       <c r="J494" t="n">
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="K494" t="n">
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
       <c r="L494" t="n">
         <v>0</v>
@@ -26637,10 +26637,10 @@
         <v>0</v>
       </c>
       <c r="N494" t="n">
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="O494" t="n">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="P494" t="n">
         <v>0</v>
@@ -26678,10 +26678,10 @@
         <v>0</v>
       </c>
       <c r="J495" t="n">
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="K495" t="n">
-        <v>0.28</v>
+        <v>0.13</v>
       </c>
       <c r="L495" t="n">
         <v>0</v>
@@ -26690,10 +26690,10 @@
         <v>0</v>
       </c>
       <c r="N495" t="n">
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="O495" t="n">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="P495" t="n">
         <v>0</v>
@@ -26734,10 +26734,10 @@
         <v>0.19</v>
       </c>
       <c r="K496" t="n">
-        <v>0.3</v>
+        <v>0.19</v>
       </c>
       <c r="L496" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="M496" t="n">
         <v>0</v>
@@ -26746,10 +26746,10 @@
         <v>0.19</v>
       </c>
       <c r="O496" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="P496" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="Q496" t="n">
         <v>0</v>
@@ -26784,7 +26784,7 @@
         <v>0</v>
       </c>
       <c r="J497" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="K497" t="n">
         <v>0.26</v>
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="N497" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="O497" t="n">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="P497" t="n">
         <v>0</v>
@@ -26837,25 +26837,25 @@
         <v>0</v>
       </c>
       <c r="J498" t="n">
-        <v>0.2</v>
+        <v>0.29</v>
       </c>
       <c r="K498" t="n">
-        <v>0.2</v>
+        <v>0.29</v>
       </c>
       <c r="L498" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="M498" t="n">
         <v>0</v>
       </c>
       <c r="N498" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="O498" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="P498" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="Q498" t="n">
         <v>0</v>
@@ -26890,25 +26890,25 @@
         <v>0</v>
       </c>
       <c r="J499" t="n">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="K499" t="n">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="L499" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="M499" t="n">
         <v>0</v>
       </c>
       <c r="N499" t="n">
-        <v>0.19</v>
+        <v>0.39</v>
       </c>
       <c r="O499" t="n">
-        <v>0.19</v>
+        <v>0.39</v>
       </c>
       <c r="P499" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="Q499" t="n">
         <v>0</v>
@@ -26925,7 +26925,7 @@
         <v>0.21</v>
       </c>
       <c r="D500" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="E500" t="n">
         <v>0</v>
@@ -26943,25 +26943,25 @@
         <v>0</v>
       </c>
       <c r="J500" t="n">
-        <v>0.19</v>
+        <v>0.28</v>
       </c>
       <c r="K500" t="n">
-        <v>0.19</v>
+        <v>0.28</v>
       </c>
       <c r="L500" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="M500" t="n">
         <v>0</v>
       </c>
       <c r="N500" t="n">
-        <v>0.19</v>
+        <v>0.39</v>
       </c>
       <c r="O500" t="n">
-        <v>0.19</v>
+        <v>0.39</v>
       </c>
       <c r="P500" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Q500" t="n">
         <v>0</v>
@@ -27008,10 +27008,10 @@
         <v>0</v>
       </c>
       <c r="N501" t="n">
-        <v>0.29</v>
+        <v>0.37</v>
       </c>
       <c r="O501" t="n">
-        <v>0.19</v>
+        <v>0.37</v>
       </c>
       <c r="P501" t="n">
         <v>0</v>
@@ -27049,25 +27049,25 @@
         <v>0</v>
       </c>
       <c r="J502" t="n">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
       <c r="K502" t="n">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
       <c r="L502" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="M502" t="n">
         <v>0</v>
       </c>
       <c r="N502" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="O502" t="n">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="P502" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="Q502" t="n">
         <v>0</v>
@@ -27102,10 +27102,10 @@
         <v>0</v>
       </c>
       <c r="J503" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="K503" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="L503" t="n">
         <v>0</v>
@@ -27114,10 +27114,10 @@
         <v>0</v>
       </c>
       <c r="N503" t="n">
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
       <c r="O503" t="n">
-        <v>0.13</v>
+        <v>0.34</v>
       </c>
       <c r="P503" t="n">
         <v>0</v>
@@ -27155,10 +27155,10 @@
         <v>0</v>
       </c>
       <c r="J504" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="K504" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="L504" t="n">
         <v>0</v>
@@ -27167,10 +27167,10 @@
         <v>0</v>
       </c>
       <c r="N504" t="n">
-        <v>0.12</v>
+        <v>0.29</v>
       </c>
       <c r="O504" t="n">
-        <v>0.12</v>
+        <v>0.28</v>
       </c>
       <c r="P504" t="n">
         <v>0</v>
@@ -27220,10 +27220,10 @@
         <v>0</v>
       </c>
       <c r="N505" t="n">
-        <v>0.14</v>
+        <v>0.31</v>
       </c>
       <c r="O505" t="n">
-        <v>0.14</v>
+        <v>0.31</v>
       </c>
       <c r="P505" t="n">
         <v>0</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="J506" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="K506" t="n">
         <v>0.28</v>
@@ -27273,10 +27273,10 @@
         <v>0</v>
       </c>
       <c r="N506" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="O506" t="n">
-        <v>0.13</v>
+        <v>0.38</v>
       </c>
       <c r="P506" t="n">
         <v>0</v>
@@ -27314,25 +27314,25 @@
         <v>0</v>
       </c>
       <c r="J507" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="K507" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="L507" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="M507" t="n">
         <v>0</v>
       </c>
       <c r="N507" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="O507" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="P507" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q507" t="n">
         <v>0</v>
@@ -27367,10 +27367,10 @@
         <v>0</v>
       </c>
       <c r="J508" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="K508" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="L508" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="N508" t="n">
-        <v>0.23</v>
+        <v>0.32</v>
       </c>
       <c r="O508" t="n">
-        <v>0.11</v>
+        <v>0.32</v>
       </c>
       <c r="P508" t="n">
         <v>0</v>
@@ -27420,10 +27420,10 @@
         <v>0</v>
       </c>
       <c r="J509" t="n">
-        <v>0.11</v>
+        <v>0.24</v>
       </c>
       <c r="K509" t="n">
-        <v>0.29</v>
+        <v>0.16</v>
       </c>
       <c r="L509" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="N509" t="n">
-        <v>0.11</v>
+        <v>0.24</v>
       </c>
       <c r="O509" t="n">
-        <v>0.14</v>
+        <v>0.24</v>
       </c>
       <c r="P509" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="J510" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="K510" t="n">
-        <v>0.29</v>
+        <v>0.17</v>
       </c>
       <c r="L510" t="n">
         <v>0</v>
@@ -27485,10 +27485,10 @@
         <v>0</v>
       </c>
       <c r="N510" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="O510" t="n">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="P510" t="n">
         <v>0</v>
@@ -27526,22 +27526,22 @@
         <v>0</v>
       </c>
       <c r="J511" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K511" t="n">
         <v>0.11</v>
       </c>
-      <c r="K511" t="n">
+      <c r="L511" t="n">
+        <v>0</v>
+      </c>
+      <c r="M511" t="n">
+        <v>0</v>
+      </c>
+      <c r="N511" t="n">
         <v>0.24</v>
       </c>
-      <c r="L511" t="n">
-        <v>0</v>
-      </c>
-      <c r="M511" t="n">
-        <v>0</v>
-      </c>
-      <c r="N511" t="n">
-        <v>0.11</v>
-      </c>
       <c r="O511" t="n">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="P511" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="J512" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="K512" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="L512" t="n">
         <v>0</v>
@@ -27591,10 +27591,10 @@
         <v>0</v>
       </c>
       <c r="N512" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="O512" t="n">
-        <v>0.14</v>
+        <v>0.3</v>
       </c>
       <c r="P512" t="n">
         <v>0</v>
@@ -27632,10 +27632,10 @@
         <v>0</v>
       </c>
       <c r="J513" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="K513" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="L513" t="n">
         <v>0</v>
@@ -27644,10 +27644,10 @@
         <v>0</v>
       </c>
       <c r="N513" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="O513" t="n">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="P513" t="n">
         <v>0</v>
@@ -27685,10 +27685,10 @@
         <v>0</v>
       </c>
       <c r="J514" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="K514" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="L514" t="n">
         <v>0</v>
@@ -27697,10 +27697,10 @@
         <v>0</v>
       </c>
       <c r="N514" t="n">
-        <v>0.18</v>
+        <v>0.34</v>
       </c>
       <c r="O514" t="n">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="P514" t="n">
         <v>0</v>
@@ -27750,10 +27750,10 @@
         <v>0</v>
       </c>
       <c r="N515" t="n">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="O515" t="n">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="P515" t="n">
         <v>0</v>
@@ -27803,10 +27803,10 @@
         <v>0</v>
       </c>
       <c r="N516" t="n">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="O516" t="n">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="P516" t="n">
         <v>0</v>
@@ -27844,10 +27844,10 @@
         <v>0</v>
       </c>
       <c r="J517" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="K517" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="L517" t="n">
         <v>0</v>
@@ -27856,10 +27856,10 @@
         <v>0</v>
       </c>
       <c r="N517" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="O517" t="n">
-        <v>0.28</v>
+        <v>0.38</v>
       </c>
       <c r="P517" t="n">
         <v>0</v>
@@ -27897,10 +27897,10 @@
         <v>0</v>
       </c>
       <c r="J518" t="n">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="K518" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="L518" t="n">
         <v>0</v>
@@ -27909,10 +27909,10 @@
         <v>0</v>
       </c>
       <c r="N518" t="n">
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
       <c r="O518" t="n">
-        <v>0.26</v>
+        <v>0.36</v>
       </c>
       <c r="P518" t="n">
         <v>0</v>
@@ -27950,10 +27950,10 @@
         <v>0</v>
       </c>
       <c r="J519" t="n">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
       <c r="K519" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="L519" t="n">
         <v>0</v>
@@ -27962,10 +27962,10 @@
         <v>0</v>
       </c>
       <c r="N519" t="n">
-        <v>0.26</v>
+        <v>0.35</v>
       </c>
       <c r="O519" t="n">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="P519" t="n">
         <v>0</v>
@@ -28015,10 +28015,10 @@
         <v>0</v>
       </c>
       <c r="N520" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="O520" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="P520" t="n">
         <v>0</v>
@@ -28068,10 +28068,10 @@
         <v>0</v>
       </c>
       <c r="N521" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="O521" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="P521" t="n">
         <v>0</v>
@@ -28121,10 +28121,10 @@
         <v>0</v>
       </c>
       <c r="N522" t="n">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="O522" t="n">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="P522" t="n">
         <v>0</v>
@@ -28174,10 +28174,10 @@
         <v>0</v>
       </c>
       <c r="N523" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="O523" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="P523" t="n">
         <v>0</v>
@@ -28227,10 +28227,10 @@
         <v>0</v>
       </c>
       <c r="N524" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="O524" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="P524" t="n">
         <v>0</v>
@@ -28280,10 +28280,10 @@
         <v>0</v>
       </c>
       <c r="N525" t="n">
-        <v>0.29</v>
+        <v>0.36</v>
       </c>
       <c r="O525" t="n">
-        <v>0.29</v>
+        <v>0.36</v>
       </c>
       <c r="P525" t="n">
         <v>0</v>
@@ -28333,10 +28333,10 @@
         <v>0</v>
       </c>
       <c r="N526" t="n">
-        <v>0.44</v>
+        <v>0.54</v>
       </c>
       <c r="O526" t="n">
-        <v>0.44</v>
+        <v>0.54</v>
       </c>
       <c r="P526" t="n">
         <v>0</v>
@@ -28386,10 +28386,10 @@
         <v>0</v>
       </c>
       <c r="N527" t="n">
-        <v>0.45</v>
+        <v>0.55</v>
       </c>
       <c r="O527" t="n">
-        <v>0.45</v>
+        <v>0.55</v>
       </c>
       <c r="P527" t="n">
         <v>0</v>
@@ -28671,7 +28671,7 @@
         <v>0.2</v>
       </c>
       <c r="C533" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D533" t="n">
         <v>0</v>
@@ -34127,10 +34127,10 @@
         <v>58850</v>
       </c>
       <c r="B636" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="C636" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="D636" t="n">
         <v>0</v>
@@ -34163,10 +34163,10 @@
         <v>0</v>
       </c>
       <c r="N636" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="O636" t="n">
-        <v>0.12</v>
+        <v>0.26</v>
       </c>
       <c r="P636" t="n">
         <v>0</v>
@@ -34445,46 +34445,46 @@
         <v>59000</v>
       </c>
       <c r="B642" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C642" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D642" t="n">
+        <v>0</v>
+      </c>
+      <c r="E642" t="n">
+        <v>0</v>
+      </c>
+      <c r="F642" t="n">
+        <v>0</v>
+      </c>
+      <c r="G642" t="n">
+        <v>0</v>
+      </c>
+      <c r="H642" t="n">
+        <v>0</v>
+      </c>
+      <c r="I642" t="n">
+        <v>0</v>
+      </c>
+      <c r="J642" t="n">
+        <v>0</v>
+      </c>
+      <c r="K642" t="n">
+        <v>0</v>
+      </c>
+      <c r="L642" t="n">
+        <v>0</v>
+      </c>
+      <c r="M642" t="n">
+        <v>0</v>
+      </c>
+      <c r="N642" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="O642" t="n">
         <v>0.13</v>
-      </c>
-      <c r="C642" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D642" t="n">
-        <v>0</v>
-      </c>
-      <c r="E642" t="n">
-        <v>0</v>
-      </c>
-      <c r="F642" t="n">
-        <v>0</v>
-      </c>
-      <c r="G642" t="n">
-        <v>0</v>
-      </c>
-      <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="n">
-        <v>0</v>
-      </c>
-      <c r="J642" t="n">
-        <v>0</v>
-      </c>
-      <c r="K642" t="n">
-        <v>0</v>
-      </c>
-      <c r="L642" t="n">
-        <v>0</v>
-      </c>
-      <c r="M642" t="n">
-        <v>0</v>
-      </c>
-      <c r="N642" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O642" t="n">
-        <v>0.12</v>
       </c>
       <c r="P642" t="n">
         <v>0</v>
@@ -34498,46 +34498,46 @@
         <v>59025</v>
       </c>
       <c r="B643" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C643" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D643" t="n">
+        <v>0</v>
+      </c>
+      <c r="E643" t="n">
+        <v>0</v>
+      </c>
+      <c r="F643" t="n">
+        <v>0</v>
+      </c>
+      <c r="G643" t="n">
+        <v>0</v>
+      </c>
+      <c r="H643" t="n">
+        <v>0</v>
+      </c>
+      <c r="I643" t="n">
+        <v>0</v>
+      </c>
+      <c r="J643" t="n">
+        <v>0</v>
+      </c>
+      <c r="K643" t="n">
+        <v>0</v>
+      </c>
+      <c r="L643" t="n">
+        <v>0</v>
+      </c>
+      <c r="M643" t="n">
+        <v>0</v>
+      </c>
+      <c r="N643" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="O643" t="n">
         <v>0.13</v>
-      </c>
-      <c r="C643" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D643" t="n">
-        <v>0</v>
-      </c>
-      <c r="E643" t="n">
-        <v>0</v>
-      </c>
-      <c r="F643" t="n">
-        <v>0</v>
-      </c>
-      <c r="G643" t="n">
-        <v>0</v>
-      </c>
-      <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="n">
-        <v>0</v>
-      </c>
-      <c r="J643" t="n">
-        <v>0</v>
-      </c>
-      <c r="K643" t="n">
-        <v>0</v>
-      </c>
-      <c r="L643" t="n">
-        <v>0</v>
-      </c>
-      <c r="M643" t="n">
-        <v>0</v>
-      </c>
-      <c r="N643" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O643" t="n">
-        <v>0.12</v>
       </c>
       <c r="P643" t="n">
         <v>0</v>
@@ -34551,10 +34551,10 @@
         <v>59040.889</v>
       </c>
       <c r="B644" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="C644" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="D644" t="n">
         <v>0</v>
@@ -34587,7 +34587,7 @@
         <v>0</v>
       </c>
       <c r="N644" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="O644" t="n">
         <v>0.12</v>

--- a/output/layerSolutions_left.xlsx
+++ b/output/layerSolutions_left.xlsx
@@ -578,10 +578,10 @@
         <v>43025</v>
       </c>
       <c r="B3" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -614,10 +614,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O3" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>43050</v>
       </c>
       <c r="B4" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C4" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -684,10 +684,10 @@
         <v>43075</v>
       </c>
       <c r="B5" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C5" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -720,10 +720,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O5" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>43175</v>
       </c>
       <c r="B9" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C9" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -932,10 +932,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O9" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>43200</v>
       </c>
       <c r="B10" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C10" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O10" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1055,10 +1055,10 @@
         <v>43250</v>
       </c>
       <c r="B12" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C12" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1091,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O12" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>43275</v>
       </c>
       <c r="B13" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O13" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>43300</v>
       </c>
       <c r="B14" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C14" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1373,10 +1373,10 @@
         <v>43400</v>
       </c>
       <c r="B18" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1409,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -8157,13 +8157,13 @@
         <v>46600</v>
       </c>
       <c r="B146" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="C146" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="D146" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
@@ -8193,13 +8193,13 @@
         <v>0</v>
       </c>
       <c r="N146" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="O146" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="P146" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="Q146" t="n">
         <v>0</v>
@@ -8475,13 +8475,13 @@
         <v>46750</v>
       </c>
       <c r="B152" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="C152" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="D152" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
@@ -8511,13 +8511,13 @@
         <v>0</v>
       </c>
       <c r="N152" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="O152" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="P152" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="Q152" t="n">
         <v>0</v>
@@ -8740,10 +8740,10 @@
         <v>46875</v>
       </c>
       <c r="B157" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
@@ -8752,10 +8752,10 @@
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -8923,10 +8923,10 @@
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="K160" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>0</v>
@@ -8935,10 +8935,10 @@
         <v>0</v>
       </c>
       <c r="N160" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="O160" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P160" t="n">
         <v>0</v>
@@ -8952,10 +8952,10 @@
         <v>46975</v>
       </c>
       <c r="B161" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C161" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -8964,10 +8964,10 @@
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G161" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -8976,10 +8976,10 @@
         <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="K161" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L161" t="n">
         <v>0</v>
@@ -8988,10 +8988,10 @@
         <v>0</v>
       </c>
       <c r="N161" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="O161" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P161" t="n">
         <v>0</v>
@@ -9029,10 +9029,10 @@
         <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="K162" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="L162" t="n">
         <v>0</v>
@@ -9041,10 +9041,10 @@
         <v>0</v>
       </c>
       <c r="N162" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="O162" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="P162" t="n">
         <v>0</v>
@@ -9082,10 +9082,10 @@
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="K163" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="L163" t="n">
         <v>0</v>
@@ -9094,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="N163" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O163" t="n">
         <v>0.3</v>
@@ -9111,10 +9111,10 @@
         <v>47050</v>
       </c>
       <c r="B164" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C164" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -9123,10 +9123,10 @@
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G164" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -9135,10 +9135,10 @@
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="K164" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="L164" t="n">
         <v>0</v>
@@ -9147,10 +9147,10 @@
         <v>0</v>
       </c>
       <c r="N164" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O164" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="P164" t="n">
         <v>0</v>
@@ -9164,10 +9164,10 @@
         <v>47075</v>
       </c>
       <c r="B165" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C165" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -9176,10 +9176,10 @@
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G165" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -9188,10 +9188,10 @@
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="K165" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="L165" t="n">
         <v>0</v>
@@ -9200,10 +9200,10 @@
         <v>0</v>
       </c>
       <c r="N165" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O165" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="P165" t="n">
         <v>0</v>
@@ -9294,10 +9294,10 @@
         <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="K167" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="L167" t="n">
         <v>0</v>
@@ -9306,10 +9306,10 @@
         <v>0</v>
       </c>
       <c r="N167" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O167" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="P167" t="n">
         <v>0</v>
@@ -9323,10 +9323,10 @@
         <v>47150</v>
       </c>
       <c r="B168" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C168" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -9335,10 +9335,10 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G168" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -9429,10 +9429,10 @@
         <v>47200</v>
       </c>
       <c r="B170" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
@@ -9441,10 +9441,10 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -9588,10 +9588,10 @@
         <v>47275</v>
       </c>
       <c r="B173" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C173" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="D173" t="n">
         <v>0</v>
@@ -9600,10 +9600,10 @@
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G173" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -9641,10 +9641,10 @@
         <v>47300</v>
       </c>
       <c r="B174" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C174" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
@@ -9653,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G174" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -9665,10 +9665,10 @@
         <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="K174" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L174" t="n">
         <v>0</v>
@@ -9677,10 +9677,10 @@
         <v>0</v>
       </c>
       <c r="N174" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="O174" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P174" t="n">
         <v>0</v>
@@ -9718,10 +9718,10 @@
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="K175" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="L175" t="n">
         <v>0</v>
@@ -9730,10 +9730,10 @@
         <v>0</v>
       </c>
       <c r="N175" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="O175" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P175" t="n">
         <v>0</v>
@@ -9747,10 +9747,10 @@
         <v>47350</v>
       </c>
       <c r="B176" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="D176" t="n">
         <v>0</v>
@@ -9759,10 +9759,10 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -9771,10 +9771,10 @@
         <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="K176" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L176" t="n">
         <v>0</v>
@@ -9783,10 +9783,10 @@
         <v>0</v>
       </c>
       <c r="N176" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="O176" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P176" t="n">
         <v>0</v>
@@ -10012,10 +10012,10 @@
         <v>47475</v>
       </c>
       <c r="B181" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C181" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
@@ -10024,10 +10024,10 @@
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G181" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -10065,10 +10065,10 @@
         <v>47500</v>
       </c>
       <c r="B182" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C182" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
@@ -10077,10 +10077,10 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G182" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>47525</v>
       </c>
       <c r="B183" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C183" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="D183" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G183" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -10142,10 +10142,10 @@
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="K183" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L183" t="n">
         <v>0</v>
@@ -10154,10 +10154,10 @@
         <v>0</v>
       </c>
       <c r="N183" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="O183" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P183" t="n">
         <v>0</v>
@@ -10210,7 +10210,7 @@
         <v>0.17</v>
       </c>
       <c r="O184" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="P184" t="n">
         <v>0</v>
@@ -10277,10 +10277,10 @@
         <v>47600</v>
       </c>
       <c r="B186" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C186" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="D186" t="n">
         <v>0</v>
@@ -10313,10 +10313,10 @@
         <v>0</v>
       </c>
       <c r="N186" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O186" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="P186" t="n">
         <v>0</v>
@@ -10330,10 +10330,10 @@
         <v>47625</v>
       </c>
       <c r="B187" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C187" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="D187" t="n">
         <v>0</v>
@@ -10366,10 +10366,10 @@
         <v>0</v>
       </c>
       <c r="N187" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O187" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="P187" t="n">
         <v>0</v>
@@ -10383,10 +10383,10 @@
         <v>47650</v>
       </c>
       <c r="B188" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C188" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D188" t="n">
         <v>0</v>
@@ -10419,10 +10419,10 @@
         <v>0</v>
       </c>
       <c r="N188" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O188" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="P188" t="n">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>47675</v>
       </c>
       <c r="B189" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C189" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
@@ -10472,10 +10472,10 @@
         <v>0</v>
       </c>
       <c r="N189" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O189" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="P189" t="n">
         <v>0</v>
@@ -10489,10 +10489,10 @@
         <v>47700</v>
       </c>
       <c r="B190" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C190" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="D190" t="n">
         <v>0</v>
@@ -10525,10 +10525,10 @@
         <v>0</v>
       </c>
       <c r="N190" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O190" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="P190" t="n">
         <v>0</v>
@@ -10595,10 +10595,10 @@
         <v>47750</v>
       </c>
       <c r="B192" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C192" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="D192" t="n">
         <v>0</v>
@@ -10631,10 +10631,10 @@
         <v>0</v>
       </c>
       <c r="N192" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O192" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="P192" t="n">
         <v>0</v>
@@ -11814,10 +11814,10 @@
         <v>48325</v>
       </c>
       <c r="B215" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C215" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="D215" t="n">
         <v>0</v>
@@ -11850,10 +11850,10 @@
         <v>0</v>
       </c>
       <c r="N215" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O215" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="P215" t="n">
         <v>0</v>
@@ -12050,10 +12050,10 @@
         <v>0</v>
       </c>
       <c r="J219" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="K219" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="L219" t="n">
         <v>0</v>
@@ -12062,10 +12062,10 @@
         <v>0</v>
       </c>
       <c r="N219" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O219" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="P219" t="n">
         <v>0</v>
@@ -12079,10 +12079,10 @@
         <v>48450</v>
       </c>
       <c r="B220" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C220" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="D220" t="n">
         <v>0</v>
@@ -12091,10 +12091,10 @@
         <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G220" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -12115,10 +12115,10 @@
         <v>0</v>
       </c>
       <c r="N220" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="O220" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="P220" t="n">
         <v>0</v>
@@ -12132,10 +12132,10 @@
         <v>48475</v>
       </c>
       <c r="B221" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C221" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="D221" t="n">
         <v>0</v>
@@ -12144,10 +12144,10 @@
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G221" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -12168,10 +12168,10 @@
         <v>0</v>
       </c>
       <c r="N221" t="n">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="O221" t="n">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="P221" t="n">
         <v>0</v>
@@ -12221,10 +12221,10 @@
         <v>0</v>
       </c>
       <c r="N222" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="O222" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="P222" t="n">
         <v>0</v>
@@ -12262,10 +12262,10 @@
         <v>0</v>
       </c>
       <c r="J223" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="K223" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="L223" t="n">
         <v>0</v>
@@ -12274,10 +12274,10 @@
         <v>0</v>
       </c>
       <c r="N223" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="O223" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="P223" t="n">
         <v>0</v>
@@ -12291,34 +12291,34 @@
         <v>48550</v>
       </c>
       <c r="B224" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C224" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
         <v>0.14</v>
       </c>
-      <c r="D224" t="n">
-        <v>0</v>
-      </c>
-      <c r="E224" t="n">
-        <v>0</v>
-      </c>
-      <c r="F224" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="G224" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="n">
-        <v>0.19</v>
-      </c>
       <c r="K224" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="L224" t="n">
         <v>0</v>
@@ -12327,10 +12327,10 @@
         <v>0</v>
       </c>
       <c r="N224" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="O224" t="n">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
       <c r="P224" t="n">
         <v>0</v>
@@ -12344,10 +12344,10 @@
         <v>48575</v>
       </c>
       <c r="B225" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C225" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="D225" t="n">
         <v>0</v>
@@ -12356,10 +12356,10 @@
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G225" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -12368,22 +12368,22 @@
         <v>0</v>
       </c>
       <c r="J225" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.2</v>
       </c>
-      <c r="K225" t="n">
+      <c r="L225" t="n">
+        <v>0</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N225" t="n">
         <v>0.13</v>
       </c>
-      <c r="L225" t="n">
-        <v>0</v>
-      </c>
-      <c r="M225" t="n">
-        <v>0</v>
-      </c>
-      <c r="N225" t="n">
-        <v>0.2</v>
-      </c>
       <c r="O225" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="P225" t="n">
         <v>0</v>
@@ -12421,10 +12421,10 @@
         <v>0</v>
       </c>
       <c r="J226" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="K226" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="L226" t="n">
         <v>0</v>
@@ -12433,10 +12433,10 @@
         <v>0</v>
       </c>
       <c r="N226" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="O226" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="P226" t="n">
         <v>0</v>
@@ -12474,25 +12474,25 @@
         <v>0</v>
       </c>
       <c r="J227" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="K227" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="L227" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="M227" t="n">
         <v>0</v>
       </c>
       <c r="N227" t="n">
-        <v>0.21</v>
+        <v>0.32</v>
       </c>
       <c r="O227" t="n">
-        <v>0.21</v>
+        <v>0.32</v>
       </c>
       <c r="P227" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q227" t="n">
         <v>0</v>
@@ -12539,10 +12539,10 @@
         <v>0</v>
       </c>
       <c r="N228" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="O228" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="P228" t="n">
         <v>0</v>
@@ -12592,10 +12592,10 @@
         <v>0</v>
       </c>
       <c r="N229" t="n">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="O229" t="n">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="P229" t="n">
         <v>0</v>
@@ -12609,10 +12609,10 @@
         <v>48700</v>
       </c>
       <c r="B230" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C230" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="D230" t="n">
         <v>0</v>
@@ -12621,10 +12621,10 @@
         <v>0</v>
       </c>
       <c r="F230" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -12645,10 +12645,10 @@
         <v>0</v>
       </c>
       <c r="N230" t="n">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="O230" t="n">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="P230" t="n">
         <v>0</v>
@@ -12698,10 +12698,10 @@
         <v>0</v>
       </c>
       <c r="N231" t="n">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="O231" t="n">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="P231" t="n">
         <v>0</v>
@@ -12751,10 +12751,10 @@
         <v>0</v>
       </c>
       <c r="N232" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="O232" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="P232" t="n">
         <v>0</v>
@@ -12804,10 +12804,10 @@
         <v>0</v>
       </c>
       <c r="N233" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="O233" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="P233" t="n">
         <v>0</v>
@@ -12857,10 +12857,10 @@
         <v>0</v>
       </c>
       <c r="N234" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="O234" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="P234" t="n">
         <v>0</v>
@@ -12910,10 +12910,10 @@
         <v>0</v>
       </c>
       <c r="N235" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="O235" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="P235" t="n">
         <v>0</v>
@@ -13493,10 +13493,10 @@
         <v>0</v>
       </c>
       <c r="N246" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="O246" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="P246" t="n">
         <v>0</v>
@@ -13546,10 +13546,10 @@
         <v>0</v>
       </c>
       <c r="N247" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="O247" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="P247" t="n">
         <v>0</v>
@@ -13563,10 +13563,10 @@
         <v>49150</v>
       </c>
       <c r="B248" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="C248" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="D248" t="n">
         <v>0</v>
@@ -13575,10 +13575,10 @@
         <v>0</v>
       </c>
       <c r="F248" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="G248" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -13599,10 +13599,10 @@
         <v>0</v>
       </c>
       <c r="N248" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="O248" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="P248" t="n">
         <v>0</v>
@@ -13640,10 +13640,10 @@
         <v>0</v>
       </c>
       <c r="J249" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="K249" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="L249" t="n">
         <v>0</v>
@@ -13652,10 +13652,10 @@
         <v>0</v>
       </c>
       <c r="N249" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O249" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="P249" t="n">
         <v>0</v>
@@ -13669,35 +13669,35 @@
         <v>49200</v>
       </c>
       <c r="B250" t="n">
+        <v>0</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.14</v>
       </c>
-      <c r="C250" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D250" t="n">
-        <v>0</v>
-      </c>
-      <c r="E250" t="n">
-        <v>0</v>
-      </c>
-      <c r="F250" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="G250" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.15</v>
-      </c>
       <c r="L250" t="n">
         <v>0</v>
       </c>
@@ -13705,10 +13705,10 @@
         <v>0</v>
       </c>
       <c r="N250" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O250" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="P250" t="n">
         <v>0</v>
@@ -13746,10 +13746,10 @@
         <v>0</v>
       </c>
       <c r="J251" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="K251" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="L251" t="n">
         <v>0</v>
@@ -13758,10 +13758,10 @@
         <v>0</v>
       </c>
       <c r="N251" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O251" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="P251" t="n">
         <v>0</v>
@@ -13775,10 +13775,10 @@
         <v>49250</v>
       </c>
       <c r="B252" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C252" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="D252" t="n">
         <v>0</v>
@@ -13787,10 +13787,10 @@
         <v>0</v>
       </c>
       <c r="F252" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G252" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -13934,25 +13934,25 @@
         <v>49325</v>
       </c>
       <c r="B255" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="C255" t="n">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="D255" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E255" t="n">
         <v>0</v>
       </c>
       <c r="F255" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G255" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="H255" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -14064,10 +14064,10 @@
         <v>0</v>
       </c>
       <c r="J257" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="K257" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="L257" t="n">
         <v>0</v>
@@ -14076,7 +14076,7 @@
         <v>0</v>
       </c>
       <c r="N257" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="O257" t="n">
         <v>0.3</v>
@@ -14129,10 +14129,10 @@
         <v>0</v>
       </c>
       <c r="N258" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="O258" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="P258" t="n">
         <v>0</v>
@@ -14182,10 +14182,10 @@
         <v>0</v>
       </c>
       <c r="N259" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="P259" t="n">
         <v>0</v>
@@ -14223,10 +14223,10 @@
         <v>0</v>
       </c>
       <c r="J260" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="K260" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="L260" t="n">
         <v>0</v>
@@ -14235,10 +14235,10 @@
         <v>0</v>
       </c>
       <c r="N260" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="P260" t="n">
         <v>0</v>
@@ -14252,10 +14252,10 @@
         <v>49475</v>
       </c>
       <c r="B261" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="C261" t="n">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="D261" t="n">
         <v>0</v>
@@ -14264,10 +14264,10 @@
         <v>0</v>
       </c>
       <c r="F261" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G261" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -14288,10 +14288,10 @@
         <v>0</v>
       </c>
       <c r="N261" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="O261" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="P261" t="n">
         <v>0</v>
@@ -14305,10 +14305,10 @@
         <v>49500</v>
       </c>
       <c r="B262" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="C262" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="D262" t="n">
         <v>0</v>
@@ -14317,10 +14317,10 @@
         <v>0</v>
       </c>
       <c r="F262" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="G262" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -14341,10 +14341,10 @@
         <v>0</v>
       </c>
       <c r="N262" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="O262" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="P262" t="n">
         <v>0</v>
@@ -14358,10 +14358,10 @@
         <v>49525</v>
       </c>
       <c r="B263" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="C263" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="D263" t="n">
         <v>0</v>
@@ -14370,10 +14370,10 @@
         <v>0</v>
       </c>
       <c r="F263" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="G263" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -14394,10 +14394,10 @@
         <v>0</v>
       </c>
       <c r="N263" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="O263" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="P263" t="n">
         <v>0</v>
@@ -14447,10 +14447,10 @@
         <v>0</v>
       </c>
       <c r="N264" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="O264" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="P264" t="n">
         <v>0</v>
@@ -14500,10 +14500,10 @@
         <v>0</v>
       </c>
       <c r="N265" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="O265" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="P265" t="n">
         <v>0</v>
@@ -14594,10 +14594,10 @@
         <v>0</v>
       </c>
       <c r="J267" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="K267" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="L267" t="n">
         <v>0</v>
@@ -14606,7 +14606,7 @@
         <v>0</v>
       </c>
       <c r="N267" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="O267" t="n">
         <v>0.3</v>
@@ -14623,10 +14623,10 @@
         <v>49650</v>
       </c>
       <c r="B268" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="C268" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="D268" t="n">
         <v>0</v>
@@ -14635,10 +14635,10 @@
         <v>0</v>
       </c>
       <c r="F268" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G268" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -14647,10 +14647,10 @@
         <v>0</v>
       </c>
       <c r="J268" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="K268" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="L268" t="n">
         <v>0</v>
@@ -14659,10 +14659,10 @@
         <v>0</v>
       </c>
       <c r="N268" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="O268" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="P268" t="n">
         <v>0</v>
@@ -14729,25 +14729,25 @@
         <v>49700</v>
       </c>
       <c r="B270" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C270" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D270" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E270" t="n">
         <v>0</v>
       </c>
       <c r="F270" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G270" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="H270" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -14765,10 +14765,10 @@
         <v>0</v>
       </c>
       <c r="N270" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="O270" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="P270" t="n">
         <v>0</v>
@@ -14818,10 +14818,10 @@
         <v>0</v>
       </c>
       <c r="N271" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="O271" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="P271" t="n">
         <v>0</v>
@@ -14859,10 +14859,10 @@
         <v>0</v>
       </c>
       <c r="J272" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="K272" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="L272" t="n">
         <v>0</v>
@@ -14871,10 +14871,10 @@
         <v>0</v>
       </c>
       <c r="N272" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="O272" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="P272" t="n">
         <v>0</v>
@@ -14912,10 +14912,10 @@
         <v>0</v>
       </c>
       <c r="J273" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="K273" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="L273" t="n">
         <v>0</v>
@@ -14924,10 +14924,10 @@
         <v>0</v>
       </c>
       <c r="N273" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="O273" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="P273" t="n">
         <v>0</v>
@@ -14965,10 +14965,10 @@
         <v>0</v>
       </c>
       <c r="J274" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="K274" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="L274" t="n">
         <v>0</v>
@@ -14977,10 +14977,10 @@
         <v>0</v>
       </c>
       <c r="N274" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O274" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="P274" t="n">
         <v>0</v>
@@ -15047,10 +15047,10 @@
         <v>49850</v>
       </c>
       <c r="B276" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="C276" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="D276" t="n">
         <v>0</v>
@@ -15083,10 +15083,10 @@
         <v>0</v>
       </c>
       <c r="N276" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="O276" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P276" t="n">
         <v>0</v>
@@ -15100,13 +15100,13 @@
         <v>49875</v>
       </c>
       <c r="B277" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="C277" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="D277" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E277" t="n">
         <v>0</v>
@@ -15136,13 +15136,13 @@
         <v>0</v>
       </c>
       <c r="N277" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="O277" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="P277" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="Q277" t="n">
         <v>0</v>
@@ -15524,16 +15524,16 @@
         <v>50075</v>
       </c>
       <c r="B285" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="C285" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="D285" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="E285" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F285" t="n">
         <v>0</v>
@@ -15560,16 +15560,16 @@
         <v>0</v>
       </c>
       <c r="N285" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="O285" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="P285" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="Q285" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -16001,10 +16001,10 @@
         <v>50300</v>
       </c>
       <c r="B294" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="C294" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="D294" t="n">
         <v>0</v>
@@ -16037,10 +16037,10 @@
         <v>0</v>
       </c>
       <c r="N294" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="O294" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P294" t="n">
         <v>0</v>
@@ -24057,13 +24057,13 @@
         <v>54100</v>
       </c>
       <c r="B446" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="C446" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="D446" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E446" t="n">
         <v>0</v>
@@ -24093,13 +24093,13 @@
         <v>0</v>
       </c>
       <c r="N446" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="O446" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="P446" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="Q446" t="n">
         <v>0</v>
@@ -24110,13 +24110,13 @@
         <v>54125</v>
       </c>
       <c r="B447" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="C447" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="D447" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E447" t="n">
         <v>0</v>
@@ -24146,13 +24146,13 @@
         <v>0</v>
       </c>
       <c r="N447" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="O447" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="P447" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="Q447" t="n">
         <v>0</v>
@@ -24799,10 +24799,10 @@
         <v>54450</v>
       </c>
       <c r="B460" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C460" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="D460" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         <v>0</v>
       </c>
       <c r="N460" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O460" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="P460" t="n">
         <v>0</v>
@@ -25117,10 +25117,10 @@
         <v>54600</v>
       </c>
       <c r="B466" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="C466" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="D466" t="n">
         <v>0</v>
@@ -25129,10 +25129,10 @@
         <v>0</v>
       </c>
       <c r="F466" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G466" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H466" t="n">
         <v>0</v>
@@ -25170,10 +25170,10 @@
         <v>54625</v>
       </c>
       <c r="B467" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="C467" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="D467" t="n">
         <v>0</v>
@@ -25182,10 +25182,10 @@
         <v>0</v>
       </c>
       <c r="F467" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G467" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H467" t="n">
         <v>0</v>
@@ -25206,10 +25206,10 @@
         <v>0</v>
       </c>
       <c r="N467" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="O467" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="P467" t="n">
         <v>0</v>
@@ -25276,10 +25276,10 @@
         <v>54675</v>
       </c>
       <c r="B469" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="C469" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="D469" t="n">
         <v>0</v>
@@ -25288,10 +25288,10 @@
         <v>0</v>
       </c>
       <c r="F469" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="G469" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H469" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="N469" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="O469" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="P469" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="N470" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="O470" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="P470" t="n">
         <v>0</v>
@@ -25418,10 +25418,10 @@
         <v>0</v>
       </c>
       <c r="N471" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="O471" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="P471" t="n">
         <v>0</v>
@@ -25471,10 +25471,10 @@
         <v>0</v>
       </c>
       <c r="N472" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="O472" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="P472" t="n">
         <v>0</v>
@@ -25524,10 +25524,10 @@
         <v>0</v>
       </c>
       <c r="N473" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="O473" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="P473" t="n">
         <v>0</v>
@@ -25577,10 +25577,10 @@
         <v>0</v>
       </c>
       <c r="N474" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="O474" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="P474" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>54825</v>
       </c>
       <c r="B475" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="C475" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="D475" t="n">
         <v>0</v>
@@ -25606,10 +25606,10 @@
         <v>0</v>
       </c>
       <c r="F475" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="G475" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H475" t="n">
         <v>0</v>
@@ -25700,10 +25700,10 @@
         <v>54875</v>
       </c>
       <c r="B477" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="C477" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="D477" t="n">
         <v>0</v>
@@ -25712,10 +25712,10 @@
         <v>0</v>
       </c>
       <c r="F477" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G477" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="H477" t="n">
         <v>0</v>
@@ -25736,10 +25736,10 @@
         <v>0</v>
       </c>
       <c r="N477" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="O477" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="P477" t="n">
         <v>0</v>
@@ -25753,10 +25753,10 @@
         <v>54900</v>
       </c>
       <c r="B478" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="C478" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="D478" t="n">
         <v>0</v>
@@ -25765,10 +25765,10 @@
         <v>0</v>
       </c>
       <c r="F478" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G478" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="H478" t="n">
         <v>0</v>
@@ -25789,10 +25789,10 @@
         <v>0</v>
       </c>
       <c r="N478" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="O478" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="P478" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="N479" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="O479" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="P479" t="n">
         <v>0</v>
@@ -25912,10 +25912,10 @@
         <v>54975</v>
       </c>
       <c r="B481" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="C481" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="D481" t="n">
         <v>0</v>
@@ -25924,10 +25924,10 @@
         <v>0</v>
       </c>
       <c r="F481" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="G481" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="H481" t="n">
         <v>0</v>
@@ -25965,10 +25965,10 @@
         <v>55000</v>
       </c>
       <c r="B482" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="C482" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="D482" t="n">
         <v>0</v>
@@ -25977,10 +25977,10 @@
         <v>0</v>
       </c>
       <c r="F482" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="G482" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H482" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>55050</v>
       </c>
       <c r="B484" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="C484" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="D484" t="n">
         <v>0</v>
@@ -26083,10 +26083,10 @@
         <v>0</v>
       </c>
       <c r="F484" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="G484" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="H484" t="n">
         <v>0</v>
@@ -26107,10 +26107,10 @@
         <v>0</v>
       </c>
       <c r="N484" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="O484" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="P484" t="n">
         <v>0</v>
@@ -26160,10 +26160,10 @@
         <v>0</v>
       </c>
       <c r="N485" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="O485" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="P485" t="n">
         <v>0</v>
@@ -26213,10 +26213,10 @@
         <v>0</v>
       </c>
       <c r="N486" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="O486" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="P486" t="n">
         <v>0</v>
@@ -26266,10 +26266,10 @@
         <v>0</v>
       </c>
       <c r="N487" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="O487" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="P487" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="N489" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="O489" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="P489" t="n">
         <v>0</v>
@@ -26466,10 +26466,10 @@
         <v>0</v>
       </c>
       <c r="J491" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="K491" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="L491" t="n">
         <v>0</v>
@@ -26478,10 +26478,10 @@
         <v>0</v>
       </c>
       <c r="N491" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="O491" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="P491" t="n">
         <v>0</v>
@@ -26519,10 +26519,10 @@
         <v>0</v>
       </c>
       <c r="J492" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="K492" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="L492" t="n">
         <v>0</v>
@@ -26531,10 +26531,10 @@
         <v>0</v>
       </c>
       <c r="N492" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="O492" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="P492" t="n">
         <v>0</v>
@@ -26572,10 +26572,10 @@
         <v>0</v>
       </c>
       <c r="J493" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="K493" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="L493" t="n">
         <v>0</v>
@@ -26584,10 +26584,10 @@
         <v>0</v>
       </c>
       <c r="N493" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="O493" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="P493" t="n">
         <v>0</v>
@@ -26625,10 +26625,10 @@
         <v>0</v>
       </c>
       <c r="J494" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="K494" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="L494" t="n">
         <v>0</v>
@@ -26637,10 +26637,10 @@
         <v>0</v>
       </c>
       <c r="N494" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="O494" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="P494" t="n">
         <v>0</v>
@@ -26678,10 +26678,10 @@
         <v>0</v>
       </c>
       <c r="J495" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="K495" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="L495" t="n">
         <v>0</v>
@@ -26690,7 +26690,7 @@
         <v>0</v>
       </c>
       <c r="N495" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="O495" t="n">
         <v>0.26</v>
@@ -26731,25 +26731,25 @@
         <v>0</v>
       </c>
       <c r="J496" t="n">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
       <c r="K496" t="n">
         <v>0.19</v>
       </c>
       <c r="L496" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="M496" t="n">
         <v>0</v>
       </c>
       <c r="N496" t="n">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
       <c r="O496" t="n">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
       <c r="P496" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="Q496" t="n">
         <v>0</v>
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="N497" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="O497" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="P497" t="n">
         <v>0</v>
@@ -26866,25 +26866,25 @@
         <v>55425</v>
       </c>
       <c r="B499" t="n">
-        <v>0.21</v>
+        <v>0.31</v>
       </c>
       <c r="C499" t="n">
-        <v>0.21</v>
+        <v>0.31</v>
       </c>
       <c r="D499" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E499" t="n">
         <v>0</v>
       </c>
       <c r="F499" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="G499" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="H499" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -26902,10 +26902,10 @@
         <v>0</v>
       </c>
       <c r="N499" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="O499" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="P499" t="n">
         <v>0</v>
@@ -26955,10 +26955,10 @@
         <v>0</v>
       </c>
       <c r="N500" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="O500" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="P500" t="n">
         <v>0</v>
@@ -27008,10 +27008,10 @@
         <v>0</v>
       </c>
       <c r="N501" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="O501" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="P501" t="n">
         <v>0</v>
@@ -27049,25 +27049,25 @@
         <v>0</v>
       </c>
       <c r="J502" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="K502" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="L502" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="M502" t="n">
         <v>0</v>
       </c>
       <c r="N502" t="n">
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
       <c r="O502" t="n">
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
       <c r="P502" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="Q502" t="n">
         <v>0</v>
@@ -27114,10 +27114,10 @@
         <v>0</v>
       </c>
       <c r="N503" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="O503" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="P503" t="n">
         <v>0</v>
@@ -27155,10 +27155,10 @@
         <v>0</v>
       </c>
       <c r="J504" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="K504" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="L504" t="n">
         <v>0</v>
@@ -27167,10 +27167,10 @@
         <v>0</v>
       </c>
       <c r="N504" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="O504" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="P504" t="n">
         <v>0</v>
@@ -27208,10 +27208,10 @@
         <v>0</v>
       </c>
       <c r="J505" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="K505" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="L505" t="n">
         <v>0</v>
@@ -27220,10 +27220,10 @@
         <v>0</v>
       </c>
       <c r="N505" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="O505" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="P505" t="n">
         <v>0</v>
@@ -27273,10 +27273,10 @@
         <v>0</v>
       </c>
       <c r="N506" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="O506" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="P506" t="n">
         <v>0</v>
@@ -27332,7 +27332,7 @@
         <v>0.25</v>
       </c>
       <c r="P507" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="Q507" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>55675</v>
       </c>
       <c r="B509" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="C509" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="D509" t="n">
         <v>0</v>
@@ -27408,10 +27408,10 @@
         <v>0</v>
       </c>
       <c r="F509" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="G509" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="H509" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="J510" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="K510" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="L510" t="n">
         <v>0</v>
@@ -27485,10 +27485,10 @@
         <v>0</v>
       </c>
       <c r="N510" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="O510" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="P510" t="n">
         <v>0</v>
@@ -27526,10 +27526,10 @@
         <v>0</v>
       </c>
       <c r="J511" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="K511" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="L511" t="n">
         <v>0</v>
@@ -27538,10 +27538,10 @@
         <v>0</v>
       </c>
       <c r="N511" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="O511" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="P511" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>55750</v>
       </c>
       <c r="B512" t="n">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="C512" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
       <c r="D512" t="n">
         <v>0</v>
@@ -27567,10 +27567,10 @@
         <v>0</v>
       </c>
       <c r="F512" t="n">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="G512" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="H512" t="n">
         <v>0</v>
@@ -27608,10 +27608,10 @@
         <v>55775</v>
       </c>
       <c r="B513" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C513" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="D513" t="n">
         <v>0</v>
@@ -27620,10 +27620,10 @@
         <v>0</v>
       </c>
       <c r="F513" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G513" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="H513" t="n">
         <v>0</v>
@@ -27632,10 +27632,10 @@
         <v>0</v>
       </c>
       <c r="J513" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="K513" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="L513" t="n">
         <v>0</v>
@@ -27644,7 +27644,7 @@
         <v>0</v>
       </c>
       <c r="N513" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="O513" t="n">
         <v>0.3</v>
@@ -27661,10 +27661,10 @@
         <v>55800</v>
       </c>
       <c r="B514" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="C514" t="n">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="D514" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>0</v>
       </c>
       <c r="F514" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G514" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="H514" t="n">
         <v>0</v>
@@ -27697,10 +27697,10 @@
         <v>0</v>
       </c>
       <c r="N514" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="O514" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="P514" t="n">
         <v>0</v>
@@ -27750,10 +27750,10 @@
         <v>0</v>
       </c>
       <c r="N515" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="O515" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="P515" t="n">
         <v>0</v>
@@ -27803,10 +27803,10 @@
         <v>0</v>
       </c>
       <c r="N516" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="O516" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="P516" t="n">
         <v>0</v>
@@ -27856,10 +27856,10 @@
         <v>0</v>
       </c>
       <c r="N517" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="O517" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="P517" t="n">
         <v>0</v>
@@ -27873,25 +27873,25 @@
         <v>55900</v>
       </c>
       <c r="B518" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="C518" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="D518" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="E518" t="n">
         <v>0</v>
       </c>
       <c r="F518" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="G518" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="H518" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -27909,10 +27909,10 @@
         <v>0</v>
       </c>
       <c r="N518" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="O518" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="P518" t="n">
         <v>0</v>
@@ -27962,10 +27962,10 @@
         <v>0</v>
       </c>
       <c r="N519" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="O519" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="P519" t="n">
         <v>0</v>
@@ -28015,10 +28015,10 @@
         <v>0</v>
       </c>
       <c r="N520" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="O520" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="P520" t="n">
         <v>0</v>
@@ -28121,10 +28121,10 @@
         <v>0</v>
       </c>
       <c r="N522" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="O522" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="P522" t="n">
         <v>0</v>
@@ -28174,10 +28174,10 @@
         <v>0</v>
       </c>
       <c r="N523" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="O523" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="P523" t="n">
         <v>0</v>
@@ -28280,10 +28280,10 @@
         <v>0</v>
       </c>
       <c r="N525" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="O525" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="P525" t="n">
         <v>0</v>
@@ -28333,10 +28333,10 @@
         <v>0</v>
       </c>
       <c r="N526" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
       <c r="O526" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
       <c r="P526" t="n">
         <v>0</v>
@@ -28386,10 +28386,10 @@
         <v>0</v>
       </c>
       <c r="N527" t="n">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="O527" t="n">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="P527" t="n">
         <v>0</v>
@@ -28562,10 +28562,10 @@
         <v>56225</v>
       </c>
       <c r="B531" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C531" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D531" t="n">
         <v>0</v>
@@ -28598,10 +28598,10 @@
         <v>0</v>
       </c>
       <c r="N531" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O531" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="P531" t="n">
         <v>0</v>
@@ -28721,10 +28721,10 @@
         <v>56300</v>
       </c>
       <c r="B534" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C534" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="D534" t="n">
         <v>0</v>
@@ -28757,10 +28757,10 @@
         <v>0</v>
       </c>
       <c r="N534" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O534" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="P534" t="n">
         <v>0</v>
@@ -28880,10 +28880,10 @@
         <v>56375</v>
       </c>
       <c r="B537" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="C537" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="D537" t="n">
         <v>0</v>
@@ -28916,10 +28916,10 @@
         <v>0</v>
       </c>
       <c r="N537" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="O537" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P537" t="n">
         <v>0</v>
@@ -29145,10 +29145,10 @@
         <v>56500</v>
       </c>
       <c r="B542" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="C542" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="D542" t="n">
         <v>0</v>
@@ -29181,10 +29181,10 @@
         <v>0</v>
       </c>
       <c r="N542" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="O542" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P542" t="n">
         <v>0</v>
@@ -30629,13 +30629,13 @@
         <v>57200</v>
       </c>
       <c r="B570" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C570" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="D570" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E570" t="n">
         <v>0</v>
@@ -30665,13 +30665,13 @@
         <v>0</v>
       </c>
       <c r="N570" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="O570" t="n">
-        <v>0.2</v>
+        <v>0.29</v>
       </c>
       <c r="P570" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="Q570" t="n">
         <v>0</v>
@@ -31742,13 +31742,13 @@
         <v>57725</v>
       </c>
       <c r="B591" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="C591" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="D591" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E591" t="n">
         <v>0</v>
@@ -31778,13 +31778,13 @@
         <v>0</v>
       </c>
       <c r="N591" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="O591" t="n">
-        <v>0.16</v>
+        <v>0.23</v>
       </c>
       <c r="P591" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Q591" t="n">
         <v>0</v>
@@ -32272,13 +32272,13 @@
         <v>57975</v>
       </c>
       <c r="B601" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="C601" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="D601" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="E601" t="n">
         <v>0</v>
@@ -32308,13 +32308,13 @@
         <v>0</v>
       </c>
       <c r="N601" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="O601" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="P601" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="Q601" t="n">
         <v>0</v>
@@ -32749,10 +32749,10 @@
         <v>58200</v>
       </c>
       <c r="B610" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="C610" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="D610" t="n">
         <v>0</v>
@@ -32785,10 +32785,10 @@
         <v>0</v>
       </c>
       <c r="N610" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="O610" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="P610" t="n">
         <v>0</v>
@@ -33173,10 +33173,10 @@
         <v>58400</v>
       </c>
       <c r="B618" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="C618" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="D618" t="n">
         <v>0</v>
@@ -33209,10 +33209,10 @@
         <v>0</v>
       </c>
       <c r="N618" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="O618" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="P618" t="n">
         <v>0</v>
@@ -33438,10 +33438,10 @@
         <v>58525</v>
       </c>
       <c r="B623" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="C623" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="D623" t="n">
         <v>0</v>
@@ -33474,10 +33474,10 @@
         <v>0</v>
       </c>
       <c r="N623" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="O623" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P623" t="n">
         <v>0</v>
@@ -33491,10 +33491,10 @@
         <v>58550</v>
       </c>
       <c r="B624" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="C624" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="D624" t="n">
         <v>0</v>
@@ -33527,10 +33527,10 @@
         <v>0</v>
       </c>
       <c r="N624" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="O624" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="P624" t="n">
         <v>0</v>
@@ -33544,10 +33544,10 @@
         <v>58575</v>
       </c>
       <c r="B625" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C625" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="D625" t="n">
         <v>0</v>
@@ -33580,10 +33580,10 @@
         <v>0</v>
       </c>
       <c r="N625" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O625" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="P625" t="n">
         <v>0</v>
@@ -34021,46 +34021,46 @@
         <v>58800</v>
       </c>
       <c r="B634" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="C634" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="D634" t="n">
+        <v>0</v>
+      </c>
+      <c r="E634" t="n">
+        <v>0</v>
+      </c>
+      <c r="F634" t="n">
+        <v>0</v>
+      </c>
+      <c r="G634" t="n">
+        <v>0</v>
+      </c>
+      <c r="H634" t="n">
+        <v>0</v>
+      </c>
+      <c r="I634" t="n">
+        <v>0</v>
+      </c>
+      <c r="J634" t="n">
+        <v>0</v>
+      </c>
+      <c r="K634" t="n">
+        <v>0</v>
+      </c>
+      <c r="L634" t="n">
+        <v>0</v>
+      </c>
+      <c r="M634" t="n">
+        <v>0</v>
+      </c>
+      <c r="N634" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O634" t="n">
         <v>0.16</v>
-      </c>
-      <c r="D634" t="n">
-        <v>0</v>
-      </c>
-      <c r="E634" t="n">
-        <v>0</v>
-      </c>
-      <c r="F634" t="n">
-        <v>0</v>
-      </c>
-      <c r="G634" t="n">
-        <v>0</v>
-      </c>
-      <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="n">
-        <v>0</v>
-      </c>
-      <c r="J634" t="n">
-        <v>0</v>
-      </c>
-      <c r="K634" t="n">
-        <v>0</v>
-      </c>
-      <c r="L634" t="n">
-        <v>0</v>
-      </c>
-      <c r="M634" t="n">
-        <v>0</v>
-      </c>
-      <c r="N634" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O634" t="n">
-        <v>0.11</v>
       </c>
       <c r="P634" t="n">
         <v>0</v>
@@ -34127,10 +34127,10 @@
         <v>58850</v>
       </c>
       <c r="B636" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C636" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="D636" t="n">
         <v>0</v>
@@ -34163,10 +34163,10 @@
         <v>0</v>
       </c>
       <c r="N636" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="O636" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="P636" t="n">
         <v>0</v>
@@ -34445,10 +34445,10 @@
         <v>59000</v>
       </c>
       <c r="B642" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="C642" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="D642" t="n">
         <v>0</v>
@@ -34481,10 +34481,10 @@
         <v>0</v>
       </c>
       <c r="N642" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="O642" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P642" t="n">
         <v>0</v>
@@ -34498,10 +34498,10 @@
         <v>59025</v>
       </c>
       <c r="B643" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="C643" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="D643" t="n">
         <v>0</v>
@@ -34534,10 +34534,10 @@
         <v>0</v>
       </c>
       <c r="N643" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="O643" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P643" t="n">
         <v>0</v>
@@ -34551,10 +34551,10 @@
         <v>59040.889</v>
       </c>
       <c r="B644" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="C644" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="D644" t="n">
         <v>0</v>
@@ -34587,7 +34587,7 @@
         <v>0</v>
       </c>
       <c r="N644" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="O644" t="n">
         <v>0.12</v>

--- a/output/layerSolutions_left.xlsx
+++ b/output/layerSolutions_left.xlsx
@@ -12147,7 +12147,7 @@
         <v>0.12</v>
       </c>
       <c r="G221" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -12156,10 +12156,10 @@
         <v>0</v>
       </c>
       <c r="J221" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="L221" t="n">
         <v>0</v>
@@ -12185,10 +12185,10 @@
         <v>48500</v>
       </c>
       <c r="B222" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="C222" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="D222" t="n">
         <v>0</v>
@@ -12197,7 +12197,7 @@
         <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="G222" t="n">
         <v>0.3</v>
@@ -12209,10 +12209,10 @@
         <v>0</v>
       </c>
       <c r="J222" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="K222" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="L222" t="n">
         <v>0</v>
@@ -12238,10 +12238,10 @@
         <v>48525</v>
       </c>
       <c r="B223" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="C223" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="D223" t="n">
         <v>0</v>
@@ -12250,10 +12250,10 @@
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="G223" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -12262,10 +12262,10 @@
         <v>0</v>
       </c>
       <c r="J223" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="K223" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="L223" t="n">
         <v>0</v>
@@ -12274,10 +12274,10 @@
         <v>0</v>
       </c>
       <c r="N223" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="O223" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="P223" t="n">
         <v>0</v>
@@ -12291,10 +12291,10 @@
         <v>48550</v>
       </c>
       <c r="B224" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="D224" t="n">
         <v>0</v>
@@ -12303,10 +12303,10 @@
         <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="G224" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -12318,7 +12318,7 @@
         <v>0.14</v>
       </c>
       <c r="K224" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="L224" t="n">
         <v>0</v>
@@ -12506,7 +12506,7 @@
         <v>0.12</v>
       </c>
       <c r="C228" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="D228" t="n">
         <v>0</v>
@@ -12515,10 +12515,10 @@
         <v>0</v>
       </c>
       <c r="F228" t="n">
-        <v>0.26</v>
+        <v>0.12</v>
       </c>
       <c r="G228" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -12527,10 +12527,10 @@
         <v>0</v>
       </c>
       <c r="J228" t="n">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="K228" t="n">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="L228" t="n">
         <v>0</v>
@@ -12559,7 +12559,7 @@
         <v>0.12</v>
       </c>
       <c r="C229" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="D229" t="n">
         <v>0</v>
@@ -12568,10 +12568,10 @@
         <v>0</v>
       </c>
       <c r="F229" t="n">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="G229" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -12580,10 +12580,10 @@
         <v>0</v>
       </c>
       <c r="J229" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="K229" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="L229" t="n">
         <v>0</v>
@@ -12609,34 +12609,34 @@
         <v>48700</v>
       </c>
       <c r="B230" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="C230" t="n">
+        <v>0</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
         <v>0.13</v>
       </c>
-      <c r="D230" t="n">
-        <v>0</v>
-      </c>
-      <c r="E230" t="n">
-        <v>0</v>
-      </c>
-      <c r="F230" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="G230" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="n">
-        <v>0.16</v>
-      </c>
       <c r="K230" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="L230" t="n">
         <v>0</v>
@@ -14108,7 +14108,7 @@
         <v>0.16</v>
       </c>
       <c r="G258" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -14117,10 +14117,10 @@
         <v>0</v>
       </c>
       <c r="J258" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="K258" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="L258" t="n">
         <v>0</v>
@@ -14129,10 +14129,10 @@
         <v>0</v>
       </c>
       <c r="N258" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="O258" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="P258" t="n">
         <v>0</v>
@@ -14146,34 +14146,34 @@
         <v>49425</v>
       </c>
       <c r="B259" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="C259" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="D259" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="E259" t="n">
         <v>0</v>
       </c>
       <c r="F259" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="G259" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
       <c r="J259" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
       <c r="K259" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="L259" t="n">
         <v>0</v>
@@ -14214,7 +14214,7 @@
         <v>0.22</v>
       </c>
       <c r="G260" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -14223,10 +14223,10 @@
         <v>0</v>
       </c>
       <c r="J260" t="n">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="K260" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="L260" t="n">
         <v>0</v>
@@ -14252,10 +14252,10 @@
         <v>49475</v>
       </c>
       <c r="B261" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="C261" t="n">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="D261" t="n">
         <v>0</v>
@@ -14264,10 +14264,10 @@
         <v>0</v>
       </c>
       <c r="F261" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G261" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -14276,10 +14276,10 @@
         <v>0</v>
       </c>
       <c r="J261" t="n">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="K261" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="L261" t="n">
         <v>0</v>
@@ -14305,10 +14305,10 @@
         <v>49500</v>
       </c>
       <c r="B262" t="n">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="C262" t="n">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="D262" t="n">
         <v>0</v>
@@ -14317,7 +14317,7 @@
         <v>0</v>
       </c>
       <c r="F262" t="n">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="G262" t="n">
         <v>0.18</v>
@@ -14329,10 +14329,10 @@
         <v>0</v>
       </c>
       <c r="J262" t="n">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="K262" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="L262" t="n">
         <v>0</v>
@@ -14358,34 +14358,34 @@
         <v>49525</v>
       </c>
       <c r="B263" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="C263" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
         <v>0.3</v>
       </c>
-      <c r="D263" t="n">
-        <v>0</v>
-      </c>
-      <c r="E263" t="n">
-        <v>0</v>
-      </c>
-      <c r="F263" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="G263" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="n">
-        <v>0.2</v>
-      </c>
       <c r="K263" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="L263" t="n">
         <v>0</v>
@@ -14397,7 +14397,7 @@
         <v>0.3</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="P263" t="n">
         <v>0</v>
@@ -14411,34 +14411,34 @@
         <v>49550</v>
       </c>
       <c r="B264" t="n">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="C264" t="n">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="D264" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="E264" t="n">
         <v>0</v>
       </c>
       <c r="F264" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="G264" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
       <c r="J264" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="K264" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="L264" t="n">
         <v>0</v>
@@ -14464,49 +14464,49 @@
         <v>49575</v>
       </c>
       <c r="B265" t="n">
-        <v>0.34</v>
+        <v>0.17</v>
       </c>
       <c r="C265" t="n">
-        <v>0.34</v>
+        <v>0.17</v>
       </c>
       <c r="D265" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="E265" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="F265" t="n">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
       <c r="G265" t="n">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="I265" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J265" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="K265" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="L265" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="M265" t="n">
         <v>0</v>
       </c>
       <c r="N265" t="n">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
       <c r="O265" t="n">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
       <c r="P265" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q265" t="n">
         <v>0</v>
@@ -14517,22 +14517,22 @@
         <v>49600</v>
       </c>
       <c r="B266" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="C266" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="D266" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E266" t="n">
         <v>0</v>
       </c>
       <c r="F266" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G266" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -14541,10 +14541,10 @@
         <v>0</v>
       </c>
       <c r="J266" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="K266" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="L266" t="n">
         <v>0</v>
@@ -14553,13 +14553,13 @@
         <v>0</v>
       </c>
       <c r="N266" t="n">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
       <c r="O266" t="n">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
       <c r="P266" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="Q266" t="n">
         <v>0</v>
